--- a/500all/speech_level/speeches_CHRG-114hhrg95071.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95071.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="180">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400646</t>
   </si>
   <si>
-    <t>Michael G. Fitzpatrick</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Fitzpatrick. The Task Force to Investigate Terrorism Financing will come to order. The title of today's task force hearing is, ``A Dangerous Nexus: Terrorism, Crime, and Corruption.''    Without objection, the Chair is authorized to declare a recess of the task force at any time.    Also, without objection, members of the full Financial Services Committee who are not members of the task force may participate in today's hearing for the purposes of making an opening statement and questioning the witnesses.    The Chair now recognizes himself for 3 minutes for an opening statement.    I would again like to thank Chairman Hensarling and Ranking Member Waters for working to establish this important task force and reaffirming this committee's commitment to using its role to address the threat of terrorism, as well as my colleagues here today who will work to ensure its success.    At our last hearing we demonstrated the breadth and scope of terrorism throughout the world, as well as how these groups have evolved in the face of a strong American response. While the United States has seen some success in shutting these groups out of the international financial system, like squeezing a balloon, this has lent itself to the creation of more sophisticated and diverse funding avenues for these terror organizations.    Terrorist groups have become entwined with transnational criminal syndicates, or in some cases have evolved into the role themselves, engaging in criminal activities which yield greater profits than simply relying on state sponsorship or big pocket donors. These activities range from, but are not limited to corruption, drug trafficking, human smuggling, and extortion.    Place these funding methods on top of other non-traditional means discussed in our last hearing and it is easy to see that today's terror organizations are often better financed than their predecessors even a decade ago. Today's terrorist groups and transnational criminal syndicates thrive in highly insecure regions of the world. Terror organizations contribute to the continued regional instability and internal conflict, while organized crime exploits these environments for financial gain and corruptive influence.    To witness the impact of this dangerous union, the United States has to simply look to the Tri-Border Area. This is a relatively lawless region along the frontiers of Argentina, Brazil, and Paraguay. It has become the base for Hezbollah's illicit activities to fund its terror operations in the Middle East and around the world.    Hezbollah has engaged in several of the criminal activities mentioned, and through them has succeeded in raising a substantial amount of money to bankroll their actions. In fact, according to a 2009 Rand Corporation report, Hezbollah has netted around $20 million a year in this area alone.    It is this type of connection--the intersection between terrorism, crime, and corruption--that today's hearing will focus on, including current techniques being used by these groups, effectiveness of the current U.S. policy in combating them, and where these tactics can be improved. Groups like Hezbollah, the Islamic State, and Boko Haram can no longer simply be considered terrorist groups. They have evolved into sophisticated global criminal conglomerates.    In order to effectively combat such volatile threats, U.S. policy must evolve as well. That is the purpose for the formation of this bipartisan task force. It is my hope that today's dialogue between our diverse group of members and the expert panel of witnesses joining us leads us to a better understanding of the challenges facing us and shapes our discussion of long-term solutions moving forward.    At this time, I would like to recognize the task force's ranking member, and my colleague, Mr. Lynch from Massachusetts.</t>
   </si>
   <si>
     <t>400249</t>
   </si>
   <si>
-    <t>Stephen F. Lynch</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lynch. Thank you, Mr. Chairman. And I want to thank Chairman Hensarling and Ranking Member Waters for their work on this, as well as your own, and that of Vice Chairman Pittenger.    And of course, I thank our panelists this morning. Thank you for helping the task force with its work.    Today's Task Force on Terrorism Financing hearing will examine the dangerous nexus between terrorism, crime, and corruption. This hearing is particularly timely. The Director of National Intelligence, James Clapper, identified terrorism and transnational organized crime as among the top eight global threats to U.S. national security when he testified this past February before the U.S. Senate's Committee on Armed Services.    According to Director Clapper, both terrorist and transnational criminal groups thrive in highly insecure regions of the world, with terrorist groups contributing to regional instability and internal conflict, while transnational organized crime groups exploit these environments for financial gain and corruptive influence.    One example of this can be found in Venezuela. Earlier this week, The Wall Street Journal reported that the U.S. Drug Enforcement Agency and U.S. prosecutors in New York and Miami are investigating multiple high-level Venezuelan government officials, including Venezuela's National Assembly president, on suspicion they have turned the country into ``a global hub for cocaine trafficking and money laundering.'' The investigations are a response to an explosion in drug trafficking in that oil-rich country, U.S. officials say.    I bring up the example of Venezuela because Douglas Farah's prepared remarks for today's hearing discuss how a bloc of countries, led by Venezuela, now operate jointly both as a political project with an underlying goal of harming the United States and as a joint criminal enterprise. These countries are creating alliances across the globe with terrorist organizations, including Hezbollah, and the drug trade seems to be a huge source of the revenue propelling it.    The U.S. Department of the Treasury's Office of Foreign Asset Control previously sanctioned corrupt Venezuelan government officials pursuant to the Foreign Narcotics Kingpin Designation Act for acting for or on behalf of the Revolutionary Armed Forces of Colombia, which is the narcoterrorist organization. And that is often in direct support of its narcotics and arms trafficking activities.    Furthermore, it is important to note that this crime, terrorism, and corruption nexus may not only play out in Venezuela, but in other parts of the world. As reported by the State Department in its April 2014 Country Reports on Terrorism, the Tri-Border region of South America that the chairman has just identified is reflective of the interrelationship between criminal activity, terrorism, and financing.    According to the report, the Tri-Border Area of Argentina, Brazil, and Paraguay continues to be an important regional nexus of arms, narcotics, and human trafficking, counterfeiting, pirated goods, and money laundering, all potential funding sources for terrorist organizations.    I hope that this hearing will shed more light on the scope and pervasiveness of such threats. I look forward to hearing the testimony from our witnesses so we can further examine these issues and potential solutions.    Mr. Chairman, I thank you for your courtesy, and I yield back the balance of my time.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>412551</t>
   </si>
   <si>
-    <t>Robert Pittenger</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pittenger. Thank you. Thank you, Chairman Hensarling, for your leadership and vision in establishing this task force, and thank you, Ranking Member Waters, Chairman Fitzpatrick, and Representative Lynch for your leadership. Also, I really would like to thank the witnesses for joining us today. This will be a very important and very meaningful hearing.    Understanding the link between terrorism and crime is a vital step towards understanding what efforts we can take to deter terrorism financing. How are terrorists coordinating with drug lords and for what benefits? How are they working with transnational criminals to move money through the financial system? How are they utilizing the same smuggling routes today that have been used for years in the past? And what means that have previously not been utilized, like cyber warfare, should we be preparing for today? And the bigger question, what are we going to do to stop it?    Knowing that we have ended the Threat Finance Cell, there are strong concerns that we don't have the capabilities and the intelligence necessary to be effective in our goals. I also have concerns about the current effectiveness of intergovernmental cooperation to undermine the flow of money to terrorists.    I look forward to hearing from the witnesses on these issues, and continuing the task force's effort to counter terrorist financing. Thank you, Mr. Chairman, and I yield back.</t>
   </si>
   <si>
@@ -88,9 +79,6 @@
     <t>412609</t>
   </si>
   <si>
-    <t>J. French Hill</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hill. Thank you, Mr. Chairman. I am honored to be a member of this task force. My thanks to the leadership for its formation.    I think it is important that we focus on: first, the transnational criminal organizations that are driven by profit; and second, how they interact with foreign terrorist organizations who are driven by ideology. When you combine those two things, you have a toxic soup. And we have seen many scary examples, as noted this morning, of the relationship between criminal activity and terrorist organizations that interconnect throughout the world.    I am looking forward to this morning with our fine panel of witnesses to learning more about that and finding out how we can interdict that process and stop it.    I appreciate it, and I yield back, Mr. Chairman. Thank you.</t>
   </si>
   <si>
@@ -100,9 +88,6 @@
     <t>412509</t>
   </si>
   <si>
-    <t>Kyrsten Sinema</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Sinema. Thank you, Chairman Fitzpatrick and Ranking Member Lynch.    Terrorism is an undeniable threat to our country's security and global stability. Terrorist networks constantly develop new ways to finance their deadly operations and threaten America.    Terrorists frequently leverage criminal networks for financing. To keep our country safe, we must be one step ahead of them, cutting off their funding and stopping their efforts.    The Islamic State is one of the world's most violent, dangerous, and well-financed terrorist groups. In 2014, ISIL generated approximately $1 million per day, predominantly through the sale of smuggled oil. That is why I have recently offered an amendment, which was accepted, to the National Defense Authorization Act (NDAA) to direct the Secretary of Defense, in coordination with the Secretary of State and the Secretary of the Treasury, to pursue efforts to shut down ISIL's oil revenues and report on resources needed for these efforts.    ISIL also recently captured the famed archaeological sites of Palmyra, raising the possibility that they will destroy or sell priceless artifacts to fund their militant violence. I look forward to working with my colleagues on both sides of the aisle to keep money out of the hands of terrorists and to find solutions that strengthen America's security.    I yield back.</t>
   </si>
   <si>
@@ -112,36 +97,24 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Realuyo</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Realuyo. Thank you, Chairman Fitzpatrick, Vice Chairman Pittenger, Ranking Member Lynch, and members of the task force for the opportunity to appear before you today to testify on the dangerous nexus of terrorism, crime, and corruption that threatens U.S. national security at home and abroad.    Illicit networks of terrorists, criminals, and their facilitators actively capitalize on weak governance, black markets, and corruption to challenge security and prosperity around the world. After examining the critical enablers of these networks, in particular financing, and illustrating the convergence of illicit networks in the case of ISIL, I will propose some specific measures to further leverage our financial instrument of national power to combat terrorism, crime, and corruption.    Illicit networks threaten the four key missions of the nation-state: to provide security; promote prosperity; safeguard the rule of law; and ensure that the government represents the will of the people. Illicit actors require critical enablers to realize their political and revenue objectives. They are leadership, personnel, illicit activities, logistics, communications, weapons, technology, corruption, and financing.    Financing is the most vital enabler, since money serves as the oxygen for any activity. Consequently, following the money trail is instrumental to detect, disrupt, and dismantle these networks. Since 9/11, the United States has countered terrorist financing through intelligence and law enforcement operations, including the Iraq and Afghan Threat Finance Cells, public designations and sanctions, and capacity-building programs.    As a result of these efforts, the al Qaeda operatives complained about a lack of funding for terrorist operations, and the Mexican cartels realized that they could no longer easily launder profits through banks. Other measures to combat the financing of terrorism and crime have also unexpectedly weeded out graft and corruption at the highest levels of government.    Terrorism, crime, and corruption have existed since the dawn of time, but now they have gone global with record levels of profits and violence. In many cases terrorists, cartels, and gangs are better armed and funded than the very government services security forces responsible for confronting them.    We are witnessing a dangerous convergence of terrorism and crime that threatens our national security. Convergence is the process of coming together and having one interest, purpose, or goal. Certain groups are demonstrating a hybrid terror-crime behavior, such as the Haqqani Network in Afghanistan, the FARC in Colombia, Hezbollah, and ISIL.    All eyes are now on ISIL, with its brutal beheadings, military advances in Syria and Iraq, and dramatic foreign fighter flows. It is an example of convergence with its ambitions for a caliphate and profit-seeking criminal activity. ISIL requires significant financing to realize its evil agenda and is considered the richest terrorist group in the world.    As you all know, it derives much of its income from illegal oil sales, with additional funding from extortion, kidnapping, stolen antiquities, human trafficking, and some donations from external individuals.    One of the nine lines of effort of the U.S. strategy to counter ISIL is disrupting its finances. It is focused on disrupting its revenue streams, restricting its access to international financial systems, and targeting ISIL leaders and facilitators with sanctions.    On the military front, Operation Inherent Resolve has conducted air strikes against ISIL oil infrastructure and supply networks in Syria and Iraq. As of May 8th, 152 targets have been damaged or destroyed, according to U.S. Central Command.    This past weekend, U.S. Special Forces conducted a daring raid in Syria against Abu Sayyaf, a senior leader considered the chief financial officer of ISIL. This operation illustrates the growing importance of targeting ISIL's finances and how valuable the financial intelligence collected at the target site could be to attack its networks.    To counter illicit networks, we need to further leverage the financial instrument of national power, and I propose the five following measures. Number one, increase resources to government agencies to investigate and prosecute terrorism, crime, and corruption. Number two, retain the Afghan Threat Finance Cell and establish new ones to target emerging threats like ISIL. Number three, revitalize the interagency Terrorist Financing Working Group to coordinate all activities across agencies. Number four, dedicate a percentage of the fines from sanctions evasion and money laundering to directly support counterthreat finance programs. And lastly, promote public-private partnerships to empower the private sector to serve as our eyes and ears to detect financial crimes.    In conclusion, we must understand the illicit networks that confront us and deny their assets to critical enablers. Stemming the flow of funding to groups like ISIL and Hezbollah can neutralize their virulent agenda. Only through comprehensive, proactive interagency and international strategies can we effectively combat terrorism, crime, and corruption around the world, and the financial instrument of national power is a critical tool of which we must take advantage.    Thank you for your time and attention.    [The prepared statement of Professor Realuyo can be found on page 95 of the appendix.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Fitzpatrick. Dr. Asher, you are now recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Asher</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Asher. Chairman Fitzpatrick, Vice Chairman Pittenger, and Congressman Lynch, it is an honor to speak before you. I actually want to say thank you for caring about this issue. This is a very important issue. It is really not in the weeds. It is at the heart of the matter. Money is the sinew of war. And we are in a war against terrorists around the world whether people want to admit it or not.    I want to highlight an experience that I have had. I have been involved in nearly 25 years of working against terrorism financing, doing financial operations against drug cartels, adversarial governments, weapons proliferation networks. I have sort of seen it all.    But what I hadn't seen until 2007 when I started to advise the Drug Enforcement Administration--which despite some raps recently is an awesome organization; it actually has done some incredible stuff for our national security, well above and beyond its remit--was a case where the United States itself has become the largest money-laundering vehicle for terrorists in the world.    And that is the case involving the Lebanese Canadian Bank (LCB), a bank that was under the command and control of Hezbollah, and most particularly the element within Hezbollah, it appears--and this is still subject to being proven in court--that is tied to terrorism, the Islamic Jihad Organization that attacked our embassy twice in the 1980s and killed hundreds of Americans.    That organization is known as the external security organization of Hezbollah, and it controls the external security apparatus of Hezbollah, which reaches all the way into the United States of America itself.    To garner profit and gain influence, they have engaged in something that I would call the criminal resistance; i.e., they have used the $80 billion U.S.-dollarized Lebanese banking system, which is the third-largest offshore financial center for dollars in the world, I believe, as a center point for their global money laundering empire.    The United States has dozens of banks with correspondent relationships with Lebanon. The fastest-growing bank in Lebanon until 3 years ago was called the Lebanese Canadian Bank. That bank was under the control of Hezbollah.    Through DEA's Operation Titan, which I had the honor to advise on from 2007 onward, the DEA was able to use undercover informants and other sources to penetrate. This is all in the public eye. I am speaking totally based on unclassified information and from a personal viewpoint only.    This bank was engaged in buying primarily used cars in the United States and Europe and textiles in Asia as part of a massive money-laundering scheme in partnership with La Oficina de Envigado. That is the outfit that Pablo Escobar himself set up in the 1980s and 1990s to run the Medellin drug cartel. This is all in the Treasury Department's Office of Foreign Assets Control (OFAC) documents you can find on the Web.    So LCB was buying as much as a billion dollars a year in used cars in the United States, cars which were generating almost no profit actually, and exporting the cars to West Africa, where the money was commingled with narcotics trafficking proceeds coming out of Europe. That is the world we live in; it is very complicated.    The drugs were flowing from Colombia primarily into Europe. The money was being couriered back to Lebanon, and being wired to the United States to buy used cars here, as well as buying used cars in Europe with cash, and it was making its way back into this Lebanese Canadian Bank which was at the center of Hezbollah's money-laundering empire.    So it is the largest material support scheme in the world and it remains the largest material support scheme in the world for a terrorist group.    In 2010, the DEA began constructing a takedown strategy against the Lebanese Canadian Bank on which I helped advise. I am very proud of what we did. I won't get into all of the details. We organized the designation of the Lebanese Canadian Bank under Section 311 of the USA PATRIOT Act. That cut it off from the United States, blew up the bank, $5.5 billion Hezbollah bank, bankrupt in 3 weeks. Thank you very much. So that was a success.    We designated the drug kingpin from the Medellin drug cartel, Ayman Joumaa, who was at the center of this thing. He was indicted in the Eastern District of Virginia for laundering over a billion dollars a year for Los Zetas. He is indicted for his relationship with the Lebanese Canadian Bank and designated as well. He is wanted for arrest.    We went after the car parks in West Africa. We designated those. We had never designated a car park before. It was a huge success.    But I am here to tell you that today, unfortunately, there are more cars being exported from the United States itself to West African car parks controlled by Hezbollah than there were when we made the designations in 2011 and 2012.    Our policy is a great success of interagency cooperation, and international cooperation. I feel very proud of what the Bush Administration and even this Administration have done to try to make a dent in this. Unfortunately, it has not succeeded. I would like to discuss with you some measures which might help advance that success.    Thank you.    [The prepared statement of Dr. Asher can be found on page 42 of the appendix.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Fitzpatrick. Thank you, Dr. Asher.    Mr. Barrett, you are now recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Barrett</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Barrett. Thank you, Chairman Fitzpatrick, Vice Chairman Pittenger, Ranking Member Lynch, and distinguished members of the House Financial Services Committee. It is an honor to testify before you today on this issue of perennial concern.    Although terrorism, along with other forms of violent crime, lacks a profit motive, any terrorist attack costs money, and it is reasonable to assume, therefore, that the less money that a terrorist group has available, the less able it will be to mount an attack. And if it does so, limited finances should result in limited impact.    But terrorism of course by its nature is asymmetric, and it is asymmetric in all of its aspects, including financially. And even a relatively cheap attack can have a devastating impact. For example, the last al Qaeda attack in a Western country occurred in my country.    On the 7th of July, 2005, four individuals associated with al Qaeda blew themselves up on the public transport system in London, killing 52 people. The official inquiry into the attack estimated that it had cost less than 8,000 pounds. That is about $13,000 or so.    To quote from the report: ``The group appears to have raised the necessary cash by methods that would be extremely difficult to identify as related to terrorism or other serious criminality. Khan--he was one of the group--appears to have provided most of the funding. Having been in full-time employment for 3 years since university, he had a reasonable credit rating, multiple bank accounts, each with just a small amount deposited for a protracted period, credit cards, and a 10,000 pound personal loan. He defaulted on his personal loan repayments and was overdrawn on his accounts.''    So it was very difficult to detect. But despite the low cost of that attack and the unremarkable financial activity associated with it, it had a devastating impact, of course, on the United Kingdom beyond the deaths. The cost to the U.K. economy was estimated at 2 billion pounds just in the rest of 2005 alone. And the cost of the official inquiry itself, I might say, was put at 4.5 million pounds.    So even an unsuccessful attack, which might therefore cost even less, can have a huge impact. Just think of the costs resulting from another plot that originated in the United Kingdom, the 2006 plot to blow up 7 airlines traveling to North America. The additional security checks imposed on airports as a result have cost billions of dollars.    The point I am trying to make is that terrorism does not have to be expensive to be effective, whether in its primary objective of making people afraid or in its secondary objective of forcing governments to react.    The second point is that terrorists can fund their operations through legal means, quasi-legal means, and illegal means. Legal means might include donations or the self-financing of the London bombings. Quasi-legal means might include the raising of income through traditional means by terrorist groups that control territory: taxing income; selling natural resources; and so on. Whereas illegal means of course might include kidnap for ransom or all of the other things we have heard about.    And it is my belief that although terrorists have few qualms about how they raise money, they don't have any preferred means. They do whatever is easiest and most effective. And they will raise money according to opportunity, aiming all the while of course to minimize effort and risk while maximizing their returns. And this complicates countering the financing of terrorism as the money used by terrorists is not necessarily criminally tainted before it is collected.    Increasingly, terrorists are attracted to less governed areas of the world where they can establish bases and control territory. And inevitably too, these areas are ones that criminals use for their own transshipments of drugs or other contraband and things like that.    And to this extent, terrorists have established a close relationship both with crime and with criminal gangs, though in my view they are more likely to take a cut from the criminal gangs than to join their rackets or compete with them.    Terrorists and criminals who operate for profit are not natural bedfellows. Criminals see terrorists as dangerous both in and of themselves, and also in that they are likely to bring attention from the authorities. An official might easily be bribed to allow conventional criminal activity, but is less likely to agree to turn a blind eye to terrorism. Likewise, terrorists are suspicious of criminals as people who have no sympathy with their cause and might well attack or betray them if they saw profit in doing so.    So the point I wanted to make, Mr. Chairman, was that although there is undoubtedly an association between terrorism and criminality, it is not necessarily straightforward nor even universal.    Thank you.    [The prepared statement of Mr. Barrett can be found on page 79 of the appendix.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Fitzpatrick. Thank you, Mr. Barrett.    Mr. Farah, you are recognized now for 5 minutes.</t>
   </si>
   <si>
-    <t>Farah</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Farah. Members of the task force, thank you very much for the opportunity to testify about the dangerous nexus among terrorism, crime, and corruption. I speak only for IBI Consultants and myself, not on behalf of the institutions with which I am affiliated. I am going to focus my remarks on Latin America, where we are seeing a convergence of these three factors in new and dangerous forms.    The convergence of terrorism, transnational crime, and corruption are the core of what I believe is a significant strategic threat to the United States. I have described this emerging tier-one security priority as criminalized states. That is, states that actively use transnational organized crime as an instrument of statecraft, rely on the revenues from illicit activities to fund themselves, and often overlap this protective mechanism with terrorist organizations.    In our hemisphere we are primarily seeing this in the network that emanates, I would argue, from Venezuela in the Western Hemisphere, where you have the political project, the joint political project among multiple nations whose underlying goal is harming the United States, as well as operating in a conjoined criminal enterprise. Rather than being pursued by law enforcement and intelligence services in these states in an effort to impede their activities, transnational organized criminal networks and protected terrorist groups are able to operate in more stable, secure environments, something that most businesses, both licit and illicit, crave. Rather than operating on the margins of the state or seeking to co-op small pieces of the state machinery, these criminal groups in these states are able to concentrate their efforts at the state on multiple levels.    Within that stable environment, a host of new options become available, from the sale of weapons to the use of national aircraft registries, shipping registries, the easy use of banking structures, the use of national airlines and shipping lines to move large quantifies of unregistered goods, and the acquisition of diplomatic passports and other identification forms.    The threat originating in Venezuela is not confined to Venezuela. The late Hugo Chavez, acting in concert with his allies, Rafael Correa in Ecuador, Evo Morales in Bolivia, Daniel Ortega in Nicaragua, and Cristina Fernandez de Kirchner in Argentina, set out to redefine the political landscape in Latin America. Senior members of El Salvador's current FMLN government are also allied with this movement.    To a large degree this movement, self-described as the Bolivarian alliance, has been successful. Unfortunately, what their policies have wrought internally are massive corruption, rising violence, a disdain for the rule of law, and the collapse of institutions.    On the strategic level this has brought new alliances with Iran and Hezbollah, Russia and Russian organized crime, China and Chinese organized crime, as well as Mexican drug cartels and the Colombian criminal organizations. The Revolutionary Armed Forces of Colombia, FARC, a designated terrorist organization by the United States and the European Union, as well as a major drug trafficking organization, is directly supported by the Bolivarian nations as a matter of state policy.    Such a relationship between state and non-state actors provides numerous benefits to both. The FARC and Hezbollah gain access to the territory of Bolivarian nations without fear of reprisals. They gain access to identification documents and access to routes for exporting cocaine to the United States and Europe, while using the same routes to imports large quantities of sophisticated weapons and communications equipment.    In return, the Bolivarian governments offer state protection and reap the rewards of the financial benefits of the individuals, as well as institutions derived from the cocaine trade. Iran, whose banks have been largely barred from the Western financial system, benefit from access to the international markets through Venezuela, Ecuador, and Bolivian financial institutions, which act as proxies by moving Iranian money as if it originated in their own unsanctioned banking structures.    There is significant new evidence of the criminalization of these states. The first is the recent investigation by Veja, a Brazilian magazine, showing that Venezuela, with the help of Argentina, actively tried to help Iran's nuclear program in violation of international sanctions.    The Wall Street Journal, as mentioned earlier, has a long list of senior Venezuelan administration officials being investigated for drug trafficking. The recent book, ``Bumeran Chavez,'' the ``Chavez Boomerang,'' which was just released, describes in detail from numerous eyewitnesses cocaine dealings at the highest level of the Venezuelan government and their contacts with Hezbollah and FARC operatives in officially sanctioned meetings and at the highest level.    And the recent designation of Banca Privada d'Andorra by FinCEN as a foreign financial institution of primary money laundering control.    All of these mechanisms allow for literally billions of dollars to slosh through states that are completely unaccounted for, both by legislative oversight or by any form of accounting. Understanding how these groups develop and how they relate to each other and form from outside the region, particularly given the rapid pace with which they are expanding their control across the continent and across the hemisphere, make this, I would argue, a tier-one threat and something critical that we need to understand and something that we often don't look at in the underlying ideological underpinnings of the movement.    Thank you.    [The prepared statement of Mr. Farah can be found on page 85 of the appendix.]</t>
   </si>
   <si>
@@ -235,9 +208,6 @@
     <t>412578</t>
   </si>
   <si>
-    <t>Roger Williams</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Williams. Thank you, Mr. Chairman. I appreciate it.    I have two questions: the first one to you, Mr. Farah; and the second one to Dr. Asher.    In your testimony this morning, you spoke about how countries likes Iran, whose banks are largely barred from the Western financial systems, have been able to gain access to international markets through countries in Latin America.    Would you help this committee further understand what implications terrorists or criminal groups who are supported or allowed to operate in Latin America have on this country.</t>
   </si>
   <si>
@@ -295,9 +265,6 @@
     <t>400371</t>
   </si>
   <si>
-    <t>Brad Sherman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sherman. Much of our U.S. Government is doing an outstanding job. Some agencies aren't. I have an example that may beat the ones of our witnesses, an example where giving money to terrorists is not only easy; it is tax deductible.    In 2009, I brought to the attention of the IRS that an organization called the IFCO, which was a 501(c)(3) organization, had on its Web site, ``Give us the money and we will give it to Viva Palestinia and then Viva Palestinia will give it to Hamas.''    It took them 4 years to take it seriously. Then, in October 2013, the organization put on its Web site the IRS report as to why the organization should lose its tax-exempt status and used it as a fundraising device, saying, ``Look, the IRS doesn't like us. Give us more money. We will give it to Hamas.''    And even today, somebody who looks at the list of organizations to which they can give tax-exempt contributions, can give it to the IFCO. So I think just the fact that we make it a little easy for the terrorists, I have you beat. We make it tax-deductible.    Remittances: a lot of ordinary Americans want to send money to Somalia to their relatives. Would it make sense for the United States to green-list licensed organizations where if you give them the money, the money will go to an individual Somali relative?    Now, of course, there is always a possibility that your relative has been seduced by terrorist propaganda and gives some of the money to terrorists. But at least, if the money gets to the relative of an American, does it make sense for the United States Government to give Americans an avenue where they can feel relatively safe?    Do we have a witness who wants to answer that?    Mr. Barrett?</t>
   </si>
   <si>
@@ -331,9 +298,6 @@
     <t>412633</t>
   </si>
   <si>
-    <t>Bruce Poliquin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Poliquin. Thank you, Mr. Chairman. I appreciate it.    And thank you all very much for being here today and dealing with this new dimension of terrorism financing. I encourage everybody to continue to do your good work to make sure our country stays on offense and make sure we do everything humanly possible to stop the flow of funds to terrorist groups that threaten our homeland.    I am a little bit concerned today as we go down this path and now all of a sudden we see a marriage between organized crime and terrorism and so it is an additional source of funding to terrorism. And I know all of us in this country are getting increasingly alarmed by the savagery that we see over in the Middle East, in particular, dealing with these organizations.    I would like to follow up with you, Professor Realuyo, if I can, with Mr. Lynch's question dealing with the Administration's negotiations currently with respect to a nuclear deal with Iran.    And if, in fact, sanctions are lifted that are currently imposed on Iran, freeing up roughly $125 billion, $150 billion of cash to that country, what might that do with respect to the increased marriage between organized crime and terrorist funding?    In particular, could you walk us through, to the best of your knowledge, knowing that you have a background in international banking and, also, national security, what would happen next?</t>
   </si>
   <si>
@@ -355,9 +319,6 @@
     <t>400653</t>
   </si>
   <si>
-    <t>Al Green</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Green. Thank you, Mr. Chairman.    And I thank the witnesses for appearing as well.    And, Mr. Chairman, I am very much concerned about the notion that we should follow the money, but I am also concerned about following the counterfeit money, what is called ``supernotes.''    This currency is so finely tuned that sometimes it is very difficult to be detected but for some sort of special technology. As you know, the dollar is the reserve currency for most of the world, and there is a war for currency supremacy.    My concern--or maybe I shouldn't be concerned, and I will let you tell me--is whether or not these supernotes flowing in and out of our country and into other countries can pose some sort of threat to security in this country in the long run.    I do understand that we retooled our currency, but I am still concerned about nationals larger than terrorist organizations, countries, if you will, that can play a role in devaluing and creating mistrust in our currency.    Does anyone care to respond?</t>
   </si>
   <si>
@@ -379,9 +340,6 @@
     <t>412570</t>
   </si>
   <si>
-    <t>Keith J. Rothfus</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rothfus. Thank you, Mr. Chairman.    Mr. Farah, you point out in your testimony that Iran, whose banks are largely barred from the Western financial system, benefits from access to the international financial market through Venezuela, Ecuador, and Bolivian financial institutions which act as proxies by moving Iranian money as if it originated in their own unsanctioned financial systems.    Can you explain on a practical level how Iran was able to use these institutions to evade international sanctions regimes, and what the United States has tried to do, clearly unsuccessfully, to prevent this?</t>
   </si>
   <si>
@@ -439,9 +397,6 @@
     <t>412541</t>
   </si>
   <si>
-    <t>Andy Barr</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Barr. Thank you, Mr. Chairman, for calling this important hearing to explore and learn more about the dangerous nexus between terrorism and criminal organizations.    I am particularly interested in whether or not there is substantial evidence of U.S.-based criminal organizations that have partnered with Islamic terrorist organizations. And what is the extent of the nexus between--we have heard about international drug cartels' involvement in partnerships with terror organizations. But to what extent are American-based, U.S.-based criminal organizations affiliated with Islamic terrorist organizations like Hezbollah? Like ISIL? Anyone?</t>
   </si>
   <si>
@@ -478,9 +433,6 @@
     <t>412399</t>
   </si>
   <si>
-    <t>David Schweikert</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Schweikert. Thank you, Mr. Chairman.    There are just so many things we would like to know in this. And when we have 5 minutes, we try to do it very quickly.    Can I just walk through a scenario? Because I am trying to understand flow, and also cost, discounts. The drug cartel sells its illicit products in North America.    First, how does it get the cash back across the border? Is it converting it to gold? Is it carrying suitcases of cash?    Mr. Farah, how are they getting it to Central America first? What would your opinion be?    And then I am going to ask, if they end up in Ecuador, what are they being charged? What is the cost of money laundering? Walk me through a couple of these steps.</t>
   </si>
   <si>
@@ -575,9 +527,6 @@
   </si>
   <si>
     <t>400271</t>
-  </si>
-  <si>
-    <t>Gregory W. Meeks</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Meeks. Thank you, Mr. Chairman.    And I thank all of you for your testimony. I have been listening very attentively in my office to your testimony.    And let me just ask you first a few questions because my focus has been, on this committee, what we can do in Congress to make sure that we are not allowing the Internet and others to facilitate anti-money-laundering, et cetera.    Mr. Asher, I guess I will ask you the first question. I think that in your testimony, you mentioned that Congress should amend the Bank Secrecy Act to facilitate anti-money-laundering data-sharing among banks.    Now, the issue that we recently had the vote--there is a general concern among Americans about personal information being widely available to a range of institutions with little knowledge about how that information is being used.    So I was wondering if you could elaborate on this conflict and how Congress should proceed with improving the Bank Secrecy Act while also preserving the individual's human rights to privacy debate that we have going on in Congress right now.</t>
@@ -1003,11 +952,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1027,13 +974,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1055,11 +1000,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1079,13 +1022,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1107,11 +1048,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1133,11 +1072,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1157,13 +1094,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1185,11 +1120,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1209,13 +1142,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1237,11 +1168,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1261,13 +1190,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1289,11 +1216,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1313,13 +1238,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1341,11 +1264,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1365,13 +1286,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
         <v>31</v>
-      </c>
-      <c r="G16" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1393,11 +1312,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1417,13 +1334,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" t="s">
-        <v>41</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1445,11 +1360,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1469,13 +1382,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1497,11 +1408,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1521,13 +1430,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1549,11 +1456,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1573,13 +1478,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
-      </c>
-      <c r="G24" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1601,11 +1504,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1625,13 +1526,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1651,13 +1550,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
-      </c>
-      <c r="G27" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1677,13 +1574,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1703,13 +1598,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1729,13 +1622,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1755,13 +1646,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
-      </c>
-      <c r="G31" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1781,13 +1670,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1809,11 +1696,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1833,13 +1718,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1859,13 +1742,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
-      </c>
-      <c r="G35" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1885,13 +1766,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1911,13 +1790,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>31</v>
-      </c>
-      <c r="G37" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1937,13 +1814,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1963,13 +1838,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
-      </c>
-      <c r="G39" t="s">
-        <v>38</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1989,13 +1862,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2015,13 +1886,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
-      </c>
-      <c r="G41" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2043,11 +1912,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2067,13 +1934,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2095,11 +1960,9 @@
       <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2119,13 +1982,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
-      </c>
-      <c r="G45" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2145,13 +2006,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>31</v>
-      </c>
-      <c r="G46" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2173,11 +2032,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2197,13 +2054,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>72</v>
-      </c>
-      <c r="G48" t="s">
-        <v>73</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2223,13 +2078,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
-      </c>
-      <c r="G49" t="s">
-        <v>41</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2249,13 +2102,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>72</v>
-      </c>
-      <c r="G50" t="s">
-        <v>73</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2275,13 +2126,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
-      </c>
-      <c r="G51" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2301,13 +2150,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>72</v>
-      </c>
-      <c r="G52" t="s">
-        <v>73</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2327,13 +2174,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>31</v>
-      </c>
-      <c r="G53" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2353,13 +2198,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>72</v>
-      </c>
-      <c r="G54" t="s">
-        <v>73</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2379,13 +2222,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>31</v>
-      </c>
-      <c r="G55" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2405,13 +2246,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
+        <v>63</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
         <v>72</v>
-      </c>
-      <c r="G56" t="s">
-        <v>73</v>
-      </c>
-      <c r="H56" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2431,13 +2270,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>31</v>
-      </c>
-      <c r="G57" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2457,13 +2294,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>72</v>
-      </c>
-      <c r="G58" t="s">
-        <v>73</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2483,13 +2318,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
-      </c>
-      <c r="G59" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2509,13 +2342,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>72</v>
-      </c>
-      <c r="G60" t="s">
-        <v>73</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2535,13 +2366,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>31</v>
-      </c>
-      <c r="G61" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2561,13 +2390,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>72</v>
-      </c>
-      <c r="G62" t="s">
-        <v>73</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2587,13 +2414,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
-      </c>
-      <c r="G63" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2613,13 +2438,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>72</v>
-      </c>
-      <c r="G64" t="s">
-        <v>73</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2641,11 +2464,9 @@
       <c r="F65" t="s">
         <v>11</v>
       </c>
-      <c r="G65" t="s">
-        <v>12</v>
-      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2665,13 +2486,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>92</v>
-      </c>
-      <c r="G66" t="s">
-        <v>93</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2691,13 +2510,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>31</v>
-      </c>
-      <c r="G67" t="s">
-        <v>38</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2717,13 +2534,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>92</v>
-      </c>
-      <c r="G68" t="s">
-        <v>93</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2743,13 +2558,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>31</v>
-      </c>
-      <c r="G69" t="s">
-        <v>38</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2769,13 +2582,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>92</v>
-      </c>
-      <c r="G70" t="s">
-        <v>93</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2795,13 +2606,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
-      </c>
-      <c r="G71" t="s">
-        <v>38</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2821,13 +2630,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>92</v>
-      </c>
-      <c r="G72" t="s">
-        <v>93</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2847,13 +2654,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>31</v>
-      </c>
-      <c r="G73" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2873,13 +2678,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>92</v>
-      </c>
-      <c r="G74" t="s">
-        <v>93</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2901,11 +2704,9 @@
       <c r="F75" t="s">
         <v>11</v>
       </c>
-      <c r="G75" t="s">
-        <v>12</v>
-      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2925,13 +2726,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>104</v>
-      </c>
-      <c r="G76" t="s">
-        <v>105</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2951,13 +2750,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
-      </c>
-      <c r="G77" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2977,13 +2774,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>104</v>
-      </c>
-      <c r="G78" t="s">
-        <v>105</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3003,13 +2798,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>31</v>
-      </c>
-      <c r="G79" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3029,13 +2822,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>104</v>
-      </c>
-      <c r="G80" t="s">
-        <v>105</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3057,11 +2848,9 @@
       <c r="F81" t="s">
         <v>11</v>
       </c>
-      <c r="G81" t="s">
-        <v>12</v>
-      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3081,13 +2870,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>112</v>
-      </c>
-      <c r="G82" t="s">
-        <v>113</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3107,13 +2894,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>31</v>
-      </c>
-      <c r="G83" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3133,13 +2918,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>112</v>
-      </c>
-      <c r="G84" t="s">
-        <v>113</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3159,13 +2942,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>31</v>
-      </c>
-      <c r="G85" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3185,13 +2966,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>112</v>
-      </c>
-      <c r="G86" t="s">
-        <v>113</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3213,11 +2992,9 @@
       <c r="F87" t="s">
         <v>11</v>
       </c>
-      <c r="G87" t="s">
-        <v>12</v>
-      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3237,13 +3014,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>120</v>
-      </c>
-      <c r="G88" t="s">
-        <v>121</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3263,13 +3038,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>31</v>
-      </c>
-      <c r="G89" t="s">
-        <v>41</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3289,13 +3062,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>120</v>
-      </c>
-      <c r="G90" t="s">
-        <v>121</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3315,13 +3086,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>31</v>
-      </c>
-      <c r="G91" t="s">
-        <v>41</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3341,13 +3110,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>120</v>
-      </c>
-      <c r="G92" t="s">
-        <v>121</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3367,13 +3134,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>31</v>
-      </c>
-      <c r="G93" t="s">
-        <v>41</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3393,13 +3158,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>120</v>
-      </c>
-      <c r="G94" t="s">
-        <v>121</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3419,13 +3182,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
-      </c>
-      <c r="G95" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3445,13 +3206,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>120</v>
-      </c>
-      <c r="G96" t="s">
-        <v>121</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3471,13 +3230,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>31</v>
-      </c>
-      <c r="G97" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3497,13 +3254,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>120</v>
-      </c>
-      <c r="G98" t="s">
-        <v>121</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3525,11 +3280,9 @@
       <c r="F99" t="s">
         <v>11</v>
       </c>
-      <c r="G99" t="s">
-        <v>12</v>
-      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3549,13 +3302,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>23</v>
-      </c>
-      <c r="G100" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3575,13 +3326,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>31</v>
-      </c>
-      <c r="G101" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3601,13 +3350,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>23</v>
-      </c>
-      <c r="G102" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3627,13 +3374,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
-      </c>
-      <c r="G103" t="s">
-        <v>38</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3653,13 +3398,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>23</v>
-      </c>
-      <c r="G104" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3681,11 +3424,9 @@
       <c r="F105" t="s">
         <v>11</v>
       </c>
-      <c r="G105" t="s">
-        <v>12</v>
-      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3705,13 +3446,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>140</v>
-      </c>
-      <c r="G106" t="s">
-        <v>141</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3731,13 +3470,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>31</v>
-      </c>
-      <c r="G107" t="s">
-        <v>41</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3757,13 +3494,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
-      </c>
-      <c r="G108" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3783,13 +3518,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>140</v>
-      </c>
-      <c r="G109" t="s">
-        <v>141</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3809,13 +3542,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>31</v>
-      </c>
-      <c r="G110" t="s">
-        <v>38</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3835,13 +3566,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>140</v>
-      </c>
-      <c r="G111" t="s">
-        <v>141</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3861,13 +3590,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>31</v>
-      </c>
-      <c r="G112" t="s">
-        <v>38</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3887,13 +3614,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>140</v>
-      </c>
-      <c r="G113" t="s">
-        <v>141</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3913,13 +3638,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>31</v>
-      </c>
-      <c r="G114" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3939,13 +3662,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>140</v>
-      </c>
-      <c r="G115" t="s">
-        <v>141</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3967,11 +3688,9 @@
       <c r="F116" t="s">
         <v>11</v>
       </c>
-      <c r="G116" t="s">
-        <v>12</v>
-      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3991,13 +3710,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>153</v>
-      </c>
-      <c r="G117" t="s">
-        <v>154</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4017,13 +3734,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>31</v>
-      </c>
-      <c r="G118" t="s">
-        <v>41</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4043,13 +3758,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>153</v>
-      </c>
-      <c r="G119" t="s">
-        <v>154</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4069,13 +3782,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>31</v>
-      </c>
-      <c r="G120" t="s">
-        <v>41</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4095,13 +3806,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>153</v>
-      </c>
-      <c r="G121" t="s">
-        <v>154</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4121,13 +3830,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>31</v>
-      </c>
-      <c r="G122" t="s">
-        <v>41</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4147,13 +3854,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>153</v>
-      </c>
-      <c r="G123" t="s">
-        <v>154</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4173,13 +3878,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>31</v>
-      </c>
-      <c r="G124" t="s">
-        <v>41</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4199,13 +3902,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>153</v>
-      </c>
-      <c r="G125" t="s">
-        <v>154</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4225,13 +3926,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>31</v>
-      </c>
-      <c r="G126" t="s">
-        <v>41</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4251,13 +3950,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>153</v>
-      </c>
-      <c r="G127" t="s">
-        <v>154</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4277,13 +3974,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>31</v>
-      </c>
-      <c r="G128" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4303,13 +3998,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>153</v>
-      </c>
-      <c r="G129" t="s">
-        <v>154</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4331,11 +4024,9 @@
       <c r="F130" t="s">
         <v>11</v>
       </c>
-      <c r="G130" t="s">
-        <v>12</v>
-      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4355,13 +4046,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>18</v>
-      </c>
-      <c r="G131" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4381,13 +4070,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>31</v>
-      </c>
-      <c r="G132" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4407,13 +4094,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>18</v>
-      </c>
-      <c r="G133" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4433,13 +4118,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>31</v>
-      </c>
-      <c r="G134" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4459,13 +4142,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>18</v>
-      </c>
-      <c r="G135" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4487,11 +4168,9 @@
       <c r="F136" t="s">
         <v>11</v>
       </c>
-      <c r="G136" t="s">
-        <v>12</v>
-      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4511,13 +4190,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>23</v>
-      </c>
-      <c r="G137" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4537,13 +4214,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>31</v>
-      </c>
-      <c r="G138" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4563,13 +4238,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>23</v>
-      </c>
-      <c r="G139" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4589,13 +4262,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>31</v>
-      </c>
-      <c r="G140" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4615,13 +4286,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>23</v>
-      </c>
-      <c r="G141" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4641,13 +4310,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>31</v>
-      </c>
-      <c r="G142" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4667,13 +4334,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>31</v>
-      </c>
-      <c r="G143" t="s">
-        <v>38</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4693,13 +4358,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>31</v>
-      </c>
-      <c r="G144" t="s">
-        <v>41</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4719,13 +4382,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>31</v>
-      </c>
-      <c r="G145" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4745,13 +4406,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>23</v>
-      </c>
-      <c r="G146" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4773,11 +4432,9 @@
       <c r="F147" t="s">
         <v>11</v>
       </c>
-      <c r="G147" t="s">
-        <v>12</v>
-      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4797,13 +4454,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>186</v>
-      </c>
-      <c r="G148" t="s">
-        <v>187</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4823,13 +4478,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>31</v>
-      </c>
-      <c r="G149" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4849,13 +4502,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>186</v>
-      </c>
-      <c r="G150" t="s">
-        <v>187</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4875,13 +4526,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>31</v>
-      </c>
-      <c r="G151" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4901,13 +4550,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>186</v>
-      </c>
-      <c r="G152" t="s">
-        <v>187</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4927,13 +4574,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>31</v>
-      </c>
-      <c r="G153" t="s">
-        <v>41</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4953,13 +4598,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>186</v>
-      </c>
-      <c r="G154" t="s">
-        <v>187</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4979,13 +4622,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>31</v>
-      </c>
-      <c r="G155" t="s">
-        <v>38</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5007,11 +4648,9 @@
       <c r="F156" t="s">
         <v>11</v>
       </c>
-      <c r="G156" t="s">
-        <v>12</v>
-      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg95071.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95071.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="211">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400646</t>
   </si>
   <si>
+    <t>Fitzpatrick</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Fitzpatrick. The Task Force to Investigate Terrorism Financing will come to order. The title of today's task force hearing is, ``A Dangerous Nexus: Terrorism, Crime, and Corruption.''    Without objection, the Chair is authorized to declare a recess of the task force at any time.    Also, without objection, members of the full Financial Services Committee who are not members of the task force may participate in today's hearing for the purposes of making an opening statement and questioning the witnesses.    The Chair now recognizes himself for 3 minutes for an opening statement.    I would again like to thank Chairman Hensarling and Ranking Member Waters for working to establish this important task force and reaffirming this committee's commitment to using its role to address the threat of terrorism, as well as my colleagues here today who will work to ensure its success.    At our last hearing we demonstrated the breadth and scope of terrorism throughout the world, as well as how these groups have evolved in the face of a strong American response. While the United States has seen some success in shutting these groups out of the international financial system, like squeezing a balloon, this has lent itself to the creation of more sophisticated and diverse funding avenues for these terror organizations.    Terrorist groups have become entwined with transnational criminal syndicates, or in some cases have evolved into the role themselves, engaging in criminal activities which yield greater profits than simply relying on state sponsorship or big pocket donors. These activities range from, but are not limited to corruption, drug trafficking, human smuggling, and extortion.    Place these funding methods on top of other non-traditional means discussed in our last hearing and it is easy to see that today's terror organizations are often better financed than their predecessors even a decade ago. Today's terrorist groups and transnational criminal syndicates thrive in highly insecure regions of the world. Terror organizations contribute to the continued regional instability and internal conflict, while organized crime exploits these environments for financial gain and corruptive influence.    To witness the impact of this dangerous union, the United States has to simply look to the Tri-Border Area. This is a relatively lawless region along the frontiers of Argentina, Brazil, and Paraguay. It has become the base for Hezbollah's illicit activities to fund its terror operations in the Middle East and around the world.    Hezbollah has engaged in several of the criminal activities mentioned, and through them has succeeded in raising a substantial amount of money to bankroll their actions. In fact, according to a 2009 Rand Corporation report, Hezbollah has netted around $20 million a year in this area alone.    It is this type of connection--the intersection between terrorism, crime, and corruption--that today's hearing will focus on, including current techniques being used by these groups, effectiveness of the current U.S. policy in combating them, and where these tactics can be improved. Groups like Hezbollah, the Islamic State, and Boko Haram can no longer simply be considered terrorist groups. They have evolved into sophisticated global criminal conglomerates.    In order to effectively combat such volatile threats, U.S. policy must evolve as well. That is the purpose for the formation of this bipartisan task force. It is my hope that today's dialogue between our diverse group of members and the expert panel of witnesses joining us leads us to a better understanding of the challenges facing us and shapes our discussion of long-term solutions moving forward.    At this time, I would like to recognize the task force's ranking member, and my colleague, Mr. Lynch from Massachusetts.</t>
   </si>
   <si>
     <t>400249</t>
   </si>
   <si>
+    <t>Lynch</t>
+  </si>
+  <si>
+    <t>Stephen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lynch. Thank you, Mr. Chairman. And I want to thank Chairman Hensarling and Ranking Member Waters for their work on this, as well as your own, and that of Vice Chairman Pittenger.    And of course, I thank our panelists this morning. Thank you for helping the task force with its work.    Today's Task Force on Terrorism Financing hearing will examine the dangerous nexus between terrorism, crime, and corruption. This hearing is particularly timely. The Director of National Intelligence, James Clapper, identified terrorism and transnational organized crime as among the top eight global threats to U.S. national security when he testified this past February before the U.S. Senate's Committee on Armed Services.    According to Director Clapper, both terrorist and transnational criminal groups thrive in highly insecure regions of the world, with terrorist groups contributing to regional instability and internal conflict, while transnational organized crime groups exploit these environments for financial gain and corruptive influence.    One example of this can be found in Venezuela. Earlier this week, The Wall Street Journal reported that the U.S. Drug Enforcement Agency and U.S. prosecutors in New York and Miami are investigating multiple high-level Venezuelan government officials, including Venezuela's National Assembly president, on suspicion they have turned the country into ``a global hub for cocaine trafficking and money laundering.'' The investigations are a response to an explosion in drug trafficking in that oil-rich country, U.S. officials say.    I bring up the example of Venezuela because Douglas Farah's prepared remarks for today's hearing discuss how a bloc of countries, led by Venezuela, now operate jointly both as a political project with an underlying goal of harming the United States and as a joint criminal enterprise. These countries are creating alliances across the globe with terrorist organizations, including Hezbollah, and the drug trade seems to be a huge source of the revenue propelling it.    The U.S. Department of the Treasury's Office of Foreign Asset Control previously sanctioned corrupt Venezuelan government officials pursuant to the Foreign Narcotics Kingpin Designation Act for acting for or on behalf of the Revolutionary Armed Forces of Colombia, which is the narcoterrorist organization. And that is often in direct support of its narcotics and arms trafficking activities.    Furthermore, it is important to note that this crime, terrorism, and corruption nexus may not only play out in Venezuela, but in other parts of the world. As reported by the State Department in its April 2014 Country Reports on Terrorism, the Tri-Border region of South America that the chairman has just identified is reflective of the interrelationship between criminal activity, terrorism, and financing.    According to the report, the Tri-Border Area of Argentina, Brazil, and Paraguay continues to be an important regional nexus of arms, narcotics, and human trafficking, counterfeiting, pirated goods, and money laundering, all potential funding sources for terrorist organizations.    I hope that this hearing will shed more light on the scope and pervasiveness of such threats. I look forward to hearing the testimony from our witnesses so we can further examine these issues and potential solutions.    Mr. Chairman, I thank you for your courtesy, and I yield back the balance of my time.</t>
   </si>
   <si>
@@ -67,6 +82,12 @@
     <t>412551</t>
   </si>
   <si>
+    <t>Pittenger</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Pittenger. Thank you. Thank you, Chairman Hensarling, for your leadership and vision in establishing this task force, and thank you, Ranking Member Waters, Chairman Fitzpatrick, and Representative Lynch for your leadership. Also, I really would like to thank the witnesses for joining us today. This will be a very important and very meaningful hearing.    Understanding the link between terrorism and crime is a vital step towards understanding what efforts we can take to deter terrorism financing. How are terrorists coordinating with drug lords and for what benefits? How are they working with transnational criminals to move money through the financial system? How are they utilizing the same smuggling routes today that have been used for years in the past? And what means that have previously not been utilized, like cyber warfare, should we be preparing for today? And the bigger question, what are we going to do to stop it?    Knowing that we have ended the Threat Finance Cell, there are strong concerns that we don't have the capabilities and the intelligence necessary to be effective in our goals. I also have concerns about the current effectiveness of intergovernmental cooperation to undermine the flow of money to terrorists.    I look forward to hearing from the witnesses on these issues, and continuing the task force's effort to counter terrorist financing. Thank you, Mr. Chairman, and I yield back.</t>
   </si>
   <si>
@@ -79,6 +100,12 @@
     <t>412609</t>
   </si>
   <si>
+    <t>Hill</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Hill. Thank you, Mr. Chairman. I am honored to be a member of this task force. My thanks to the leadership for its formation.    I think it is important that we focus on: first, the transnational criminal organizations that are driven by profit; and second, how they interact with foreign terrorist organizations who are driven by ideology. When you combine those two things, you have a toxic soup. And we have seen many scary examples, as noted this morning, of the relationship between criminal activity and terrorist organizations that interconnect throughout the world.    I am looking forward to this morning with our fine panel of witnesses to learning more about that and finding out how we can interdict that process and stop it.    I appreciate it, and I yield back, Mr. Chairman. Thank you.</t>
   </si>
   <si>
@@ -88,6 +115,12 @@
     <t>412509</t>
   </si>
   <si>
+    <t>Sinema</t>
+  </si>
+  <si>
+    <t>Kyrsten</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Sinema. Thank you, Chairman Fitzpatrick and Ranking Member Lynch.    Terrorism is an undeniable threat to our country's security and global stability. Terrorist networks constantly develop new ways to finance their deadly operations and threaten America.    Terrorists frequently leverage criminal networks for financing. To keep our country safe, we must be one step ahead of them, cutting off their funding and stopping their efforts.    The Islamic State is one of the world's most violent, dangerous, and well-financed terrorist groups. In 2014, ISIL generated approximately $1 million per day, predominantly through the sale of smuggled oil. That is why I have recently offered an amendment, which was accepted, to the National Defense Authorization Act (NDAA) to direct the Secretary of Defense, in coordination with the Secretary of State and the Secretary of the Treasury, to pursue efforts to shut down ISIL's oil revenues and report on resources needed for these efforts.    ISIL also recently captured the famed archaeological sites of Palmyra, raising the possibility that they will destroy or sell priceless artifacts to fund their militant violence. I look forward to working with my colleagues on both sides of the aisle to keep money out of the hands of terrorists and to find solutions that strengthen America's security.    I yield back.</t>
   </si>
   <si>
@@ -97,24 +130,36 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Realuyo</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Realuyo. Thank you, Chairman Fitzpatrick, Vice Chairman Pittenger, Ranking Member Lynch, and members of the task force for the opportunity to appear before you today to testify on the dangerous nexus of terrorism, crime, and corruption that threatens U.S. national security at home and abroad.    Illicit networks of terrorists, criminals, and their facilitators actively capitalize on weak governance, black markets, and corruption to challenge security and prosperity around the world. After examining the critical enablers of these networks, in particular financing, and illustrating the convergence of illicit networks in the case of ISIL, I will propose some specific measures to further leverage our financial instrument of national power to combat terrorism, crime, and corruption.    Illicit networks threaten the four key missions of the nation-state: to provide security; promote prosperity; safeguard the rule of law; and ensure that the government represents the will of the people. Illicit actors require critical enablers to realize their political and revenue objectives. They are leadership, personnel, illicit activities, logistics, communications, weapons, technology, corruption, and financing.    Financing is the most vital enabler, since money serves as the oxygen for any activity. Consequently, following the money trail is instrumental to detect, disrupt, and dismantle these networks. Since 9/11, the United States has countered terrorist financing through intelligence and law enforcement operations, including the Iraq and Afghan Threat Finance Cells, public designations and sanctions, and capacity-building programs.    As a result of these efforts, the al Qaeda operatives complained about a lack of funding for terrorist operations, and the Mexican cartels realized that they could no longer easily launder profits through banks. Other measures to combat the financing of terrorism and crime have also unexpectedly weeded out graft and corruption at the highest levels of government.    Terrorism, crime, and corruption have existed since the dawn of time, but now they have gone global with record levels of profits and violence. In many cases terrorists, cartels, and gangs are better armed and funded than the very government services security forces responsible for confronting them.    We are witnessing a dangerous convergence of terrorism and crime that threatens our national security. Convergence is the process of coming together and having one interest, purpose, or goal. Certain groups are demonstrating a hybrid terror-crime behavior, such as the Haqqani Network in Afghanistan, the FARC in Colombia, Hezbollah, and ISIL.    All eyes are now on ISIL, with its brutal beheadings, military advances in Syria and Iraq, and dramatic foreign fighter flows. It is an example of convergence with its ambitions for a caliphate and profit-seeking criminal activity. ISIL requires significant financing to realize its evil agenda and is considered the richest terrorist group in the world.    As you all know, it derives much of its income from illegal oil sales, with additional funding from extortion, kidnapping, stolen antiquities, human trafficking, and some donations from external individuals.    One of the nine lines of effort of the U.S. strategy to counter ISIL is disrupting its finances. It is focused on disrupting its revenue streams, restricting its access to international financial systems, and targeting ISIL leaders and facilitators with sanctions.    On the military front, Operation Inherent Resolve has conducted air strikes against ISIL oil infrastructure and supply networks in Syria and Iraq. As of May 8th, 152 targets have been damaged or destroyed, according to U.S. Central Command.    This past weekend, U.S. Special Forces conducted a daring raid in Syria against Abu Sayyaf, a senior leader considered the chief financial officer of ISIL. This operation illustrates the growing importance of targeting ISIL's finances and how valuable the financial intelligence collected at the target site could be to attack its networks.    To counter illicit networks, we need to further leverage the financial instrument of national power, and I propose the five following measures. Number one, increase resources to government agencies to investigate and prosecute terrorism, crime, and corruption. Number two, retain the Afghan Threat Finance Cell and establish new ones to target emerging threats like ISIL. Number three, revitalize the interagency Terrorist Financing Working Group to coordinate all activities across agencies. Number four, dedicate a percentage of the fines from sanctions evasion and money laundering to directly support counterthreat finance programs. And lastly, promote public-private partnerships to empower the private sector to serve as our eyes and ears to detect financial crimes.    In conclusion, we must understand the illicit networks that confront us and deny their assets to critical enablers. Stemming the flow of funding to groups like ISIL and Hezbollah can neutralize their virulent agenda. Only through comprehensive, proactive interagency and international strategies can we effectively combat terrorism, crime, and corruption around the world, and the financial instrument of national power is a critical tool of which we must take advantage.    Thank you for your time and attention.    [The prepared statement of Professor Realuyo can be found on page 95 of the appendix.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Fitzpatrick. Dr. Asher, you are now recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Asher</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Asher. Chairman Fitzpatrick, Vice Chairman Pittenger, and Congressman Lynch, it is an honor to speak before you. I actually want to say thank you for caring about this issue. This is a very important issue. It is really not in the weeds. It is at the heart of the matter. Money is the sinew of war. And we are in a war against terrorists around the world whether people want to admit it or not.    I want to highlight an experience that I have had. I have been involved in nearly 25 years of working against terrorism financing, doing financial operations against drug cartels, adversarial governments, weapons proliferation networks. I have sort of seen it all.    But what I hadn't seen until 2007 when I started to advise the Drug Enforcement Administration--which despite some raps recently is an awesome organization; it actually has done some incredible stuff for our national security, well above and beyond its remit--was a case where the United States itself has become the largest money-laundering vehicle for terrorists in the world.    And that is the case involving the Lebanese Canadian Bank (LCB), a bank that was under the command and control of Hezbollah, and most particularly the element within Hezbollah, it appears--and this is still subject to being proven in court--that is tied to terrorism, the Islamic Jihad Organization that attacked our embassy twice in the 1980s and killed hundreds of Americans.    That organization is known as the external security organization of Hezbollah, and it controls the external security apparatus of Hezbollah, which reaches all the way into the United States of America itself.    To garner profit and gain influence, they have engaged in something that I would call the criminal resistance; i.e., they have used the $80 billion U.S.-dollarized Lebanese banking system, which is the third-largest offshore financial center for dollars in the world, I believe, as a center point for their global money laundering empire.    The United States has dozens of banks with correspondent relationships with Lebanon. The fastest-growing bank in Lebanon until 3 years ago was called the Lebanese Canadian Bank. That bank was under the control of Hezbollah.    Through DEA's Operation Titan, which I had the honor to advise on from 2007 onward, the DEA was able to use undercover informants and other sources to penetrate. This is all in the public eye. I am speaking totally based on unclassified information and from a personal viewpoint only.    This bank was engaged in buying primarily used cars in the United States and Europe and textiles in Asia as part of a massive money-laundering scheme in partnership with La Oficina de Envigado. That is the outfit that Pablo Escobar himself set up in the 1980s and 1990s to run the Medellin drug cartel. This is all in the Treasury Department's Office of Foreign Assets Control (OFAC) documents you can find on the Web.    So LCB was buying as much as a billion dollars a year in used cars in the United States, cars which were generating almost no profit actually, and exporting the cars to West Africa, where the money was commingled with narcotics trafficking proceeds coming out of Europe. That is the world we live in; it is very complicated.    The drugs were flowing from Colombia primarily into Europe. The money was being couriered back to Lebanon, and being wired to the United States to buy used cars here, as well as buying used cars in Europe with cash, and it was making its way back into this Lebanese Canadian Bank which was at the center of Hezbollah's money-laundering empire.    So it is the largest material support scheme in the world and it remains the largest material support scheme in the world for a terrorist group.    In 2010, the DEA began constructing a takedown strategy against the Lebanese Canadian Bank on which I helped advise. I am very proud of what we did. I won't get into all of the details. We organized the designation of the Lebanese Canadian Bank under Section 311 of the USA PATRIOT Act. That cut it off from the United States, blew up the bank, $5.5 billion Hezbollah bank, bankrupt in 3 weeks. Thank you very much. So that was a success.    We designated the drug kingpin from the Medellin drug cartel, Ayman Joumaa, who was at the center of this thing. He was indicted in the Eastern District of Virginia for laundering over a billion dollars a year for Los Zetas. He is indicted for his relationship with the Lebanese Canadian Bank and designated as well. He is wanted for arrest.    We went after the car parks in West Africa. We designated those. We had never designated a car park before. It was a huge success.    But I am here to tell you that today, unfortunately, there are more cars being exported from the United States itself to West African car parks controlled by Hezbollah than there were when we made the designations in 2011 and 2012.    Our policy is a great success of interagency cooperation, and international cooperation. I feel very proud of what the Bush Administration and even this Administration have done to try to make a dent in this. Unfortunately, it has not succeeded. I would like to discuss with you some measures which might help advance that success.    Thank you.    [The prepared statement of Dr. Asher can be found on page 42 of the appendix.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Fitzpatrick. Thank you, Dr. Asher.    Mr. Barrett, you are now recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Barrett</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Barrett. Thank you, Chairman Fitzpatrick, Vice Chairman Pittenger, Ranking Member Lynch, and distinguished members of the House Financial Services Committee. It is an honor to testify before you today on this issue of perennial concern.    Although terrorism, along with other forms of violent crime, lacks a profit motive, any terrorist attack costs money, and it is reasonable to assume, therefore, that the less money that a terrorist group has available, the less able it will be to mount an attack. And if it does so, limited finances should result in limited impact.    But terrorism of course by its nature is asymmetric, and it is asymmetric in all of its aspects, including financially. And even a relatively cheap attack can have a devastating impact. For example, the last al Qaeda attack in a Western country occurred in my country.    On the 7th of July, 2005, four individuals associated with al Qaeda blew themselves up on the public transport system in London, killing 52 people. The official inquiry into the attack estimated that it had cost less than 8,000 pounds. That is about $13,000 or so.    To quote from the report: ``The group appears to have raised the necessary cash by methods that would be extremely difficult to identify as related to terrorism or other serious criminality. Khan--he was one of the group--appears to have provided most of the funding. Having been in full-time employment for 3 years since university, he had a reasonable credit rating, multiple bank accounts, each with just a small amount deposited for a protracted period, credit cards, and a 10,000 pound personal loan. He defaulted on his personal loan repayments and was overdrawn on his accounts.''    So it was very difficult to detect. But despite the low cost of that attack and the unremarkable financial activity associated with it, it had a devastating impact, of course, on the United Kingdom beyond the deaths. The cost to the U.K. economy was estimated at 2 billion pounds just in the rest of 2005 alone. And the cost of the official inquiry itself, I might say, was put at 4.5 million pounds.    So even an unsuccessful attack, which might therefore cost even less, can have a huge impact. Just think of the costs resulting from another plot that originated in the United Kingdom, the 2006 plot to blow up 7 airlines traveling to North America. The additional security checks imposed on airports as a result have cost billions of dollars.    The point I am trying to make is that terrorism does not have to be expensive to be effective, whether in its primary objective of making people afraid or in its secondary objective of forcing governments to react.    The second point is that terrorists can fund their operations through legal means, quasi-legal means, and illegal means. Legal means might include donations or the self-financing of the London bombings. Quasi-legal means might include the raising of income through traditional means by terrorist groups that control territory: taxing income; selling natural resources; and so on. Whereas illegal means of course might include kidnap for ransom or all of the other things we have heard about.    And it is my belief that although terrorists have few qualms about how they raise money, they don't have any preferred means. They do whatever is easiest and most effective. And they will raise money according to opportunity, aiming all the while of course to minimize effort and risk while maximizing their returns. And this complicates countering the financing of terrorism as the money used by terrorists is not necessarily criminally tainted before it is collected.    Increasingly, terrorists are attracted to less governed areas of the world where they can establish bases and control territory. And inevitably too, these areas are ones that criminals use for their own transshipments of drugs or other contraband and things like that.    And to this extent, terrorists have established a close relationship both with crime and with criminal gangs, though in my view they are more likely to take a cut from the criminal gangs than to join their rackets or compete with them.    Terrorists and criminals who operate for profit are not natural bedfellows. Criminals see terrorists as dangerous both in and of themselves, and also in that they are likely to bring attention from the authorities. An official might easily be bribed to allow conventional criminal activity, but is less likely to agree to turn a blind eye to terrorism. Likewise, terrorists are suspicious of criminals as people who have no sympathy with their cause and might well attack or betray them if they saw profit in doing so.    So the point I wanted to make, Mr. Chairman, was that although there is undoubtedly an association between terrorism and criminality, it is not necessarily straightforward nor even universal.    Thank you.    [The prepared statement of Mr. Barrett can be found on page 79 of the appendix.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Fitzpatrick. Thank you, Mr. Barrett.    Mr. Farah, you are recognized now for 5 minutes.</t>
   </si>
   <si>
+    <t>Farah</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Farah. Members of the task force, thank you very much for the opportunity to testify about the dangerous nexus among terrorism, crime, and corruption. I speak only for IBI Consultants and myself, not on behalf of the institutions with which I am affiliated. I am going to focus my remarks on Latin America, where we are seeing a convergence of these three factors in new and dangerous forms.    The convergence of terrorism, transnational crime, and corruption are the core of what I believe is a significant strategic threat to the United States. I have described this emerging tier-one security priority as criminalized states. That is, states that actively use transnational organized crime as an instrument of statecraft, rely on the revenues from illicit activities to fund themselves, and often overlap this protective mechanism with terrorist organizations.    In our hemisphere we are primarily seeing this in the network that emanates, I would argue, from Venezuela in the Western Hemisphere, where you have the political project, the joint political project among multiple nations whose underlying goal is harming the United States, as well as operating in a conjoined criminal enterprise. Rather than being pursued by law enforcement and intelligence services in these states in an effort to impede their activities, transnational organized criminal networks and protected terrorist groups are able to operate in more stable, secure environments, something that most businesses, both licit and illicit, crave. Rather than operating on the margins of the state or seeking to co-op small pieces of the state machinery, these criminal groups in these states are able to concentrate their efforts at the state on multiple levels.    Within that stable environment, a host of new options become available, from the sale of weapons to the use of national aircraft registries, shipping registries, the easy use of banking structures, the use of national airlines and shipping lines to move large quantifies of unregistered goods, and the acquisition of diplomatic passports and other identification forms.    The threat originating in Venezuela is not confined to Venezuela. The late Hugo Chavez, acting in concert with his allies, Rafael Correa in Ecuador, Evo Morales in Bolivia, Daniel Ortega in Nicaragua, and Cristina Fernandez de Kirchner in Argentina, set out to redefine the political landscape in Latin America. Senior members of El Salvador's current FMLN government are also allied with this movement.    To a large degree this movement, self-described as the Bolivarian alliance, has been successful. Unfortunately, what their policies have wrought internally are massive corruption, rising violence, a disdain for the rule of law, and the collapse of institutions.    On the strategic level this has brought new alliances with Iran and Hezbollah, Russia and Russian organized crime, China and Chinese organized crime, as well as Mexican drug cartels and the Colombian criminal organizations. The Revolutionary Armed Forces of Colombia, FARC, a designated terrorist organization by the United States and the European Union, as well as a major drug trafficking organization, is directly supported by the Bolivarian nations as a matter of state policy.    Such a relationship between state and non-state actors provides numerous benefits to both. The FARC and Hezbollah gain access to the territory of Bolivarian nations without fear of reprisals. They gain access to identification documents and access to routes for exporting cocaine to the United States and Europe, while using the same routes to imports large quantities of sophisticated weapons and communications equipment.    In return, the Bolivarian governments offer state protection and reap the rewards of the financial benefits of the individuals, as well as institutions derived from the cocaine trade. Iran, whose banks have been largely barred from the Western financial system, benefit from access to the international markets through Venezuela, Ecuador, and Bolivian financial institutions, which act as proxies by moving Iranian money as if it originated in their own unsanctioned banking structures.    There is significant new evidence of the criminalization of these states. The first is the recent investigation by Veja, a Brazilian magazine, showing that Venezuela, with the help of Argentina, actively tried to help Iran's nuclear program in violation of international sanctions.    The Wall Street Journal, as mentioned earlier, has a long list of senior Venezuelan administration officials being investigated for drug trafficking. The recent book, ``Bumeran Chavez,'' the ``Chavez Boomerang,'' which was just released, describes in detail from numerous eyewitnesses cocaine dealings at the highest level of the Venezuelan government and their contacts with Hezbollah and FARC operatives in officially sanctioned meetings and at the highest level.    And the recent designation of Banca Privada d'Andorra by FinCEN as a foreign financial institution of primary money laundering control.    All of these mechanisms allow for literally billions of dollars to slosh through states that are completely unaccounted for, both by legislative oversight or by any form of accounting. Understanding how these groups develop and how they relate to each other and form from outside the region, particularly given the rapid pace with which they are expanding their control across the continent and across the hemisphere, make this, I would argue, a tier-one threat and something critical that we need to understand and something that we often don't look at in the underlying ideological underpinnings of the movement.    Thank you.    [The prepared statement of Mr. Farah can be found on page 85 of the appendix.]</t>
   </si>
   <si>
@@ -208,6 +253,12 @@
     <t>412578</t>
   </si>
   <si>
+    <t>Williams</t>
+  </si>
+  <si>
+    <t>Roger</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Williams. Thank you, Mr. Chairman. I appreciate it.    I have two questions: the first one to you, Mr. Farah; and the second one to Dr. Asher.    In your testimony this morning, you spoke about how countries likes Iran, whose banks are largely barred from the Western financial systems, have been able to gain access to international markets through countries in Latin America.    Would you help this committee further understand what implications terrorists or criminal groups who are supported or allowed to operate in Latin America have on this country.</t>
   </si>
   <si>
@@ -265,6 +316,12 @@
     <t>400371</t>
   </si>
   <si>
+    <t>Sherman</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Sherman. Much of our U.S. Government is doing an outstanding job. Some agencies aren't. I have an example that may beat the ones of our witnesses, an example where giving money to terrorists is not only easy; it is tax deductible.    In 2009, I brought to the attention of the IRS that an organization called the IFCO, which was a 501(c)(3) organization, had on its Web site, ``Give us the money and we will give it to Viva Palestinia and then Viva Palestinia will give it to Hamas.''    It took them 4 years to take it seriously. Then, in October 2013, the organization put on its Web site the IRS report as to why the organization should lose its tax-exempt status and used it as a fundraising device, saying, ``Look, the IRS doesn't like us. Give us more money. We will give it to Hamas.''    And even today, somebody who looks at the list of organizations to which they can give tax-exempt contributions, can give it to the IFCO. So I think just the fact that we make it a little easy for the terrorists, I have you beat. We make it tax-deductible.    Remittances: a lot of ordinary Americans want to send money to Somalia to their relatives. Would it make sense for the United States to green-list licensed organizations where if you give them the money, the money will go to an individual Somali relative?    Now, of course, there is always a possibility that your relative has been seduced by terrorist propaganda and gives some of the money to terrorists. But at least, if the money gets to the relative of an American, does it make sense for the United States Government to give Americans an avenue where they can feel relatively safe?    Do we have a witness who wants to answer that?    Mr. Barrett?</t>
   </si>
   <si>
@@ -298,6 +355,12 @@
     <t>412633</t>
   </si>
   <si>
+    <t>Poliquin</t>
+  </si>
+  <si>
+    <t>Bruce</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Poliquin. Thank you, Mr. Chairman. I appreciate it.    And thank you all very much for being here today and dealing with this new dimension of terrorism financing. I encourage everybody to continue to do your good work to make sure our country stays on offense and make sure we do everything humanly possible to stop the flow of funds to terrorist groups that threaten our homeland.    I am a little bit concerned today as we go down this path and now all of a sudden we see a marriage between organized crime and terrorism and so it is an additional source of funding to terrorism. And I know all of us in this country are getting increasingly alarmed by the savagery that we see over in the Middle East, in particular, dealing with these organizations.    I would like to follow up with you, Professor Realuyo, if I can, with Mr. Lynch's question dealing with the Administration's negotiations currently with respect to a nuclear deal with Iran.    And if, in fact, sanctions are lifted that are currently imposed on Iran, freeing up roughly $125 billion, $150 billion of cash to that country, what might that do with respect to the increased marriage between organized crime and terrorist funding?    In particular, could you walk us through, to the best of your knowledge, knowing that you have a background in international banking and, also, national security, what would happen next?</t>
   </si>
   <si>
@@ -319,6 +382,12 @@
     <t>400653</t>
   </si>
   <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Al</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Green. Thank you, Mr. Chairman.    And I thank the witnesses for appearing as well.    And, Mr. Chairman, I am very much concerned about the notion that we should follow the money, but I am also concerned about following the counterfeit money, what is called ``supernotes.''    This currency is so finely tuned that sometimes it is very difficult to be detected but for some sort of special technology. As you know, the dollar is the reserve currency for most of the world, and there is a war for currency supremacy.    My concern--or maybe I shouldn't be concerned, and I will let you tell me--is whether or not these supernotes flowing in and out of our country and into other countries can pose some sort of threat to security in this country in the long run.    I do understand that we retooled our currency, but I am still concerned about nationals larger than terrorist organizations, countries, if you will, that can play a role in devaluing and creating mistrust in our currency.    Does anyone care to respond?</t>
   </si>
   <si>
@@ -340,6 +409,12 @@
     <t>412570</t>
   </si>
   <si>
+    <t>Rothfus</t>
+  </si>
+  <si>
+    <t>Keith</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rothfus. Thank you, Mr. Chairman.    Mr. Farah, you point out in your testimony that Iran, whose banks are largely barred from the Western financial system, benefits from access to the international financial market through Venezuela, Ecuador, and Bolivian financial institutions which act as proxies by moving Iranian money as if it originated in their own unsanctioned financial systems.    Can you explain on a practical level how Iran was able to use these institutions to evade international sanctions regimes, and what the United States has tried to do, clearly unsuccessfully, to prevent this?</t>
   </si>
   <si>
@@ -397,6 +472,12 @@
     <t>412541</t>
   </si>
   <si>
+    <t>Barr</t>
+  </si>
+  <si>
+    <t>Garland</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Barr. Thank you, Mr. Chairman, for calling this important hearing to explore and learn more about the dangerous nexus between terrorism and criminal organizations.    I am particularly interested in whether or not there is substantial evidence of U.S.-based criminal organizations that have partnered with Islamic terrorist organizations. And what is the extent of the nexus between--we have heard about international drug cartels' involvement in partnerships with terror organizations. But to what extent are American-based, U.S.-based criminal organizations affiliated with Islamic terrorist organizations like Hezbollah? Like ISIL? Anyone?</t>
   </si>
   <si>
@@ -433,6 +514,12 @@
     <t>412399</t>
   </si>
   <si>
+    <t>Schweikert</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Schweikert. Thank you, Mr. Chairman.    There are just so many things we would like to know in this. And when we have 5 minutes, we try to do it very quickly.    Can I just walk through a scenario? Because I am trying to understand flow, and also cost, discounts. The drug cartel sells its illicit products in North America.    First, how does it get the cash back across the border? Is it converting it to gold? Is it carrying suitcases of cash?    Mr. Farah, how are they getting it to Central America first? What would your opinion be?    And then I am going to ask, if they end up in Ecuador, what are they being charged? What is the cost of money laundering? Walk me through a couple of these steps.</t>
   </si>
   <si>
@@ -527,6 +614,12 @@
   </si>
   <si>
     <t>400271</t>
+  </si>
+  <si>
+    <t>Meeks</t>
+  </si>
+  <si>
+    <t>Gregory</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Meeks. Thank you, Mr. Chairman.    And I thank all of you for your testimony. I have been listening very attentively in my office to your testimony.    And let me just ask you first a few questions because my focus has been, on this committee, what we can do in Congress to make sure that we are not allowing the Internet and others to facilitate anti-money-laundering, et cetera.    Mr. Asher, I guess I will ask you the first question. I think that in your testimony, you mentioned that Congress should amend the Bank Secrecy Act to facilitate anti-money-laundering data-sharing among banks.    Now, the issue that we recently had the vote--there is a general concern among Americans about personal information being widely available to a range of institutions with little knowledge about how that information is being used.    So I was wondering if you could elaborate on this conflict and how Congress should proceed with improving the Bank Secrecy Act while also preserving the individual's human rights to privacy debate that we have going on in Congress right now.</t>
@@ -902,7 +995,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H156"/>
+  <dimension ref="A1:I156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -910,7 +1003,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -932,3725 +1025,4379 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
       <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
       <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
       <c r="H10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
       <c r="H26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G27" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
       <c r="H28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G29" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G30" t="s">
+        <v>17</v>
+      </c>
       <c r="H30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G31" t="s">
+        <v>41</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G32" t="s">
+        <v>17</v>
+      </c>
       <c r="H32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
       <c r="H33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G34" t="s">
+        <v>22</v>
+      </c>
       <c r="H34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>26</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G35" t="s">
+        <v>41</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G36" t="s">
+        <v>22</v>
+      </c>
       <c r="H36" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>26</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G37" t="s">
+        <v>41</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G38" t="s">
+        <v>22</v>
+      </c>
       <c r="H38" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>26</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G39" t="s">
+        <v>44</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G40" t="s">
+        <v>22</v>
+      </c>
       <c r="H40" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>26</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G41" t="s">
+        <v>38</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
       <c r="H42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G43" t="s">
+        <v>22</v>
+      </c>
       <c r="H43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>13</v>
+      </c>
       <c r="H44" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>26</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>13</v>
+      </c>
       <c r="H47" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>63</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G48" t="s">
+        <v>79</v>
+      </c>
       <c r="H48" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>26</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G49" t="s">
+        <v>47</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>63</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G50" t="s">
+        <v>79</v>
+      </c>
       <c r="H50" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>26</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G51" t="s">
+        <v>41</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>63</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G52" t="s">
+        <v>79</v>
+      </c>
       <c r="H52" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I52" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>26</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G53" t="s">
+        <v>41</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>63</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G54" t="s">
+        <v>79</v>
+      </c>
       <c r="H54" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>26</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G55" t="s">
+        <v>41</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>63</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G56" t="s">
+        <v>79</v>
+      </c>
       <c r="H56" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I56" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>26</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G57" t="s">
+        <v>41</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>63</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G58" t="s">
+        <v>79</v>
+      </c>
       <c r="H58" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I58" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>26</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G59" t="s">
+        <v>41</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>63</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G60" t="s">
+        <v>79</v>
+      </c>
       <c r="H60" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I60" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>26</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G61" t="s">
+        <v>41</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>63</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G62" t="s">
+        <v>79</v>
+      </c>
       <c r="H62" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I62" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>26</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G63" t="s">
+        <v>41</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>63</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G64" t="s">
+        <v>79</v>
+      </c>
       <c r="H64" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="I64" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>13</v>
+      </c>
       <c r="H65" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I65" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>82</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>99</v>
+      </c>
+      <c r="G66" t="s">
+        <v>100</v>
+      </c>
       <c r="H66" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I66" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>26</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G67" t="s">
+        <v>44</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>82</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>99</v>
+      </c>
+      <c r="G68" t="s">
+        <v>100</v>
+      </c>
       <c r="H68" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I68" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>26</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G69" t="s">
+        <v>44</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>82</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>99</v>
+      </c>
+      <c r="G70" t="s">
+        <v>100</v>
+      </c>
       <c r="H70" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I70" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>26</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G71" t="s">
+        <v>44</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>82</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>99</v>
+      </c>
+      <c r="G72" t="s">
+        <v>100</v>
+      </c>
       <c r="H72" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I72" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>26</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G73" t="s">
+        <v>38</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>82</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>99</v>
+      </c>
+      <c r="G74" t="s">
+        <v>100</v>
+      </c>
       <c r="H74" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I74" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G75" t="s">
+        <v>13</v>
+      </c>
       <c r="H75" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I75" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>93</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G76" t="s">
+        <v>113</v>
+      </c>
       <c r="H76" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I76" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>26</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G77" t="s">
+        <v>38</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>93</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G78" t="s">
+        <v>113</v>
+      </c>
       <c r="H78" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I78" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>26</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G79" t="s">
+        <v>38</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>93</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G80" t="s">
+        <v>113</v>
+      </c>
       <c r="H80" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I80" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>11</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G81" t="s">
+        <v>13</v>
+      </c>
       <c r="H81" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I81" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>100</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>121</v>
+      </c>
+      <c r="G82" t="s">
+        <v>122</v>
+      </c>
       <c r="H82" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>123</v>
+      </c>
+      <c r="I82" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>26</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G83" t="s">
+        <v>41</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>100</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>121</v>
+      </c>
+      <c r="G84" t="s">
+        <v>122</v>
+      </c>
       <c r="H84" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>123</v>
+      </c>
+      <c r="I84" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>26</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G85" t="s">
+        <v>41</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>100</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>121</v>
+      </c>
+      <c r="G86" t="s">
+        <v>122</v>
+      </c>
       <c r="H86" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>123</v>
+      </c>
+      <c r="I86" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>11</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G87" t="s">
+        <v>13</v>
+      </c>
       <c r="H87" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I87" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>107</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="G88" t="s">
+        <v>131</v>
+      </c>
       <c r="H88" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I88" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>26</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G89" t="s">
+        <v>47</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>107</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="G90" t="s">
+        <v>131</v>
+      </c>
       <c r="H90" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I90" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>26</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G91" t="s">
+        <v>47</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>107</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="G92" t="s">
+        <v>131</v>
+      </c>
       <c r="H92" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I92" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>26</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G93" t="s">
+        <v>47</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>107</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="G94" t="s">
+        <v>131</v>
+      </c>
       <c r="H94" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I94" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>26</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G95" t="s">
+        <v>38</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>107</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="G96" t="s">
+        <v>131</v>
+      </c>
       <c r="H96" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I96" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>26</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G97" t="s">
+        <v>38</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>107</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>130</v>
+      </c>
+      <c r="G98" t="s">
+        <v>131</v>
+      </c>
       <c r="H98" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>132</v>
+      </c>
+      <c r="I98" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>11</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G99" t="s">
+        <v>13</v>
+      </c>
       <c r="H99" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I99" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>20</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G100" t="s">
+        <v>28</v>
+      </c>
       <c r="H100" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I100" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>26</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G101" t="s">
+        <v>41</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>20</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G102" t="s">
+        <v>28</v>
+      </c>
       <c r="H102" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I102" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>26</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G103" t="s">
+        <v>44</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>20</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G104" t="s">
+        <v>28</v>
+      </c>
       <c r="H104" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I104" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>11</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G105" t="s">
+        <v>13</v>
+      </c>
       <c r="H105" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I105" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>126</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>151</v>
+      </c>
+      <c r="G106" t="s">
+        <v>152</v>
+      </c>
       <c r="H106" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>153</v>
+      </c>
+      <c r="I106" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>26</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G107" t="s">
+        <v>47</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>26</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G108" t="s">
+        <v>41</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>126</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>151</v>
+      </c>
+      <c r="G109" t="s">
+        <v>152</v>
+      </c>
       <c r="H109" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>153</v>
+      </c>
+      <c r="I109" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>26</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G110" t="s">
+        <v>44</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>126</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>151</v>
+      </c>
+      <c r="G111" t="s">
+        <v>152</v>
+      </c>
       <c r="H111" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>153</v>
+      </c>
+      <c r="I111" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>26</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G112" t="s">
+        <v>44</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>126</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>151</v>
+      </c>
+      <c r="G113" t="s">
+        <v>152</v>
+      </c>
       <c r="H113" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>153</v>
+      </c>
+      <c r="I113" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>26</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G114" t="s">
+        <v>41</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>126</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>151</v>
+      </c>
+      <c r="G115" t="s">
+        <v>152</v>
+      </c>
       <c r="H115" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>153</v>
+      </c>
+      <c r="I115" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>11</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G116" t="s">
+        <v>13</v>
+      </c>
       <c r="H116" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I116" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>138</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>165</v>
+      </c>
+      <c r="G117" t="s">
+        <v>166</v>
+      </c>
       <c r="H117" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>167</v>
+      </c>
+      <c r="I117" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>26</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G118" t="s">
+        <v>47</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>138</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>165</v>
+      </c>
+      <c r="G119" t="s">
+        <v>166</v>
+      </c>
       <c r="H119" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>167</v>
+      </c>
+      <c r="I119" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>26</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G120" t="s">
+        <v>47</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>138</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>165</v>
+      </c>
+      <c r="G121" t="s">
+        <v>166</v>
+      </c>
       <c r="H121" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>167</v>
+      </c>
+      <c r="I121" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>26</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G122" t="s">
+        <v>47</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>138</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>165</v>
+      </c>
+      <c r="G123" t="s">
+        <v>166</v>
+      </c>
       <c r="H123" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>167</v>
+      </c>
+      <c r="I123" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>26</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G124" t="s">
+        <v>47</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>138</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>165</v>
+      </c>
+      <c r="G125" t="s">
+        <v>166</v>
+      </c>
       <c r="H125" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>167</v>
+      </c>
+      <c r="I125" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>26</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G126" t="s">
+        <v>47</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>138</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>165</v>
+      </c>
+      <c r="G127" t="s">
+        <v>166</v>
+      </c>
       <c r="H127" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>167</v>
+      </c>
+      <c r="I127" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>26</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G128" t="s">
+        <v>41</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>138</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>165</v>
+      </c>
+      <c r="G129" t="s">
+        <v>166</v>
+      </c>
       <c r="H129" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>167</v>
+      </c>
+      <c r="I129" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>11</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G130" t="s">
+        <v>13</v>
+      </c>
       <c r="H130" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I130" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>16</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G131" t="s">
+        <v>22</v>
+      </c>
       <c r="H131" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I131" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>26</v>
-      </c>
-      <c r="G132" t="s"/>
-      <c r="H132" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G132" t="s">
+        <v>38</v>
+      </c>
+      <c r="H132" t="s"/>
+      <c r="I132" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>16</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G133" t="s">
+        <v>22</v>
+      </c>
       <c r="H133" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I133" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>26</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G134" t="s">
+        <v>41</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>16</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G135" t="s">
+        <v>22</v>
+      </c>
       <c r="H135" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I135" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>11</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G136" t="s">
+        <v>13</v>
+      </c>
       <c r="H136" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I136" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>20</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G137" t="s">
+        <v>28</v>
+      </c>
       <c r="H137" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I137" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>26</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G138" t="s">
+        <v>41</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>20</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G139" t="s">
+        <v>28</v>
+      </c>
       <c r="H139" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I139" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>26</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G140" t="s">
+        <v>41</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>20</v>
-      </c>
-      <c r="G141" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G141" t="s">
+        <v>28</v>
+      </c>
       <c r="H141" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I141" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>26</v>
-      </c>
-      <c r="G142" t="s"/>
-      <c r="H142" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G142" t="s">
+        <v>41</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>26</v>
-      </c>
-      <c r="G143" t="s"/>
-      <c r="H143" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G143" t="s">
+        <v>44</v>
+      </c>
+      <c r="H143" t="s"/>
+      <c r="I143" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>26</v>
-      </c>
-      <c r="G144" t="s"/>
-      <c r="H144" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G144" t="s">
+        <v>47</v>
+      </c>
+      <c r="H144" t="s"/>
+      <c r="I144" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>26</v>
-      </c>
-      <c r="G145" t="s"/>
-      <c r="H145" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G145" t="s">
+        <v>38</v>
+      </c>
+      <c r="H145" t="s"/>
+      <c r="I145" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>20</v>
-      </c>
-      <c r="G146" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G146" t="s">
+        <v>28</v>
+      </c>
       <c r="H146" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I146" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>11</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G147" t="s">
+        <v>13</v>
+      </c>
       <c r="H147" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I147" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>170</v>
-      </c>
-      <c r="G148" t="s"/>
+        <v>199</v>
+      </c>
+      <c r="G148" t="s">
+        <v>200</v>
+      </c>
       <c r="H148" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>201</v>
+      </c>
+      <c r="I148" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>26</v>
-      </c>
-      <c r="G149" t="s"/>
-      <c r="H149" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G149" t="s">
+        <v>41</v>
+      </c>
+      <c r="H149" t="s"/>
+      <c r="I149" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>170</v>
-      </c>
-      <c r="G150" t="s"/>
+        <v>199</v>
+      </c>
+      <c r="G150" t="s">
+        <v>200</v>
+      </c>
       <c r="H150" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>201</v>
+      </c>
+      <c r="I150" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>26</v>
-      </c>
-      <c r="G151" t="s"/>
-      <c r="H151" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G151" t="s">
+        <v>41</v>
+      </c>
+      <c r="H151" t="s"/>
+      <c r="I151" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>170</v>
-      </c>
-      <c r="G152" t="s"/>
+        <v>199</v>
+      </c>
+      <c r="G152" t="s">
+        <v>200</v>
+      </c>
       <c r="H152" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>201</v>
+      </c>
+      <c r="I152" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>26</v>
-      </c>
-      <c r="G153" t="s"/>
-      <c r="H153" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G153" t="s">
+        <v>47</v>
+      </c>
+      <c r="H153" t="s"/>
+      <c r="I153" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>170</v>
-      </c>
-      <c r="G154" t="s"/>
+        <v>199</v>
+      </c>
+      <c r="G154" t="s">
+        <v>200</v>
+      </c>
       <c r="H154" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>201</v>
+      </c>
+      <c r="I154" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>26</v>
-      </c>
-      <c r="G155" t="s"/>
-      <c r="H155" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="G155" t="s">
+        <v>44</v>
+      </c>
+      <c r="H155" t="s"/>
+      <c r="I155" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>11</v>
-      </c>
-      <c r="G156" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G156" t="s">
+        <v>13</v>
+      </c>
       <c r="H156" t="s">
-        <v>179</v>
+        <v>14</v>
+      </c>
+      <c r="I156" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg95071.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95071.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="213">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -53,6 +56,9 @@
   </si>
   <si>
     <t>400646</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Fitzpatrick</t>
@@ -995,7 +1001,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I156"/>
+  <dimension ref="A1:J156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1003,7 +1009,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1028,4376 +1034,4720 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="J10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" t="s">
-        <v>47</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
-      </c>
-      <c r="G20" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" t="s">
-        <v>41</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" t="s">
-        <v>41</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G26" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
-      </c>
-      <c r="G27" t="s">
-        <v>41</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>43</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G28" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
-      </c>
-      <c r="G29" t="s">
-        <v>41</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>43</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G30" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I30" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
-      </c>
-      <c r="G31" t="s">
-        <v>41</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>43</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G32" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I33" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G34" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I34" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
-      </c>
-      <c r="G35" t="s">
-        <v>41</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>43</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G36" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I36" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
-      </c>
-      <c r="G37" t="s">
-        <v>41</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>43</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G38" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I38" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>37</v>
-      </c>
-      <c r="G39" t="s">
-        <v>44</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G40" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I40" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>37</v>
-      </c>
-      <c r="G41" t="s">
-        <v>38</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>40</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I42" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G43" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I43" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I44" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
-      </c>
-      <c r="G45" t="s">
-        <v>38</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>40</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
-      </c>
-      <c r="G46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>40</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I47" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J47" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G48" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I48" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>37</v>
-      </c>
-      <c r="G49" t="s">
-        <v>47</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>49</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G50" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I50" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>37</v>
-      </c>
-      <c r="G51" t="s">
-        <v>41</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>43</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G52" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="H52" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I52" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J52" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>37</v>
-      </c>
-      <c r="G53" t="s">
-        <v>41</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>43</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G54" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="H54" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I54" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J54" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>37</v>
-      </c>
-      <c r="G55" t="s">
-        <v>41</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>43</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G56" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="H56" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I56" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J56" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>37</v>
-      </c>
-      <c r="G57" t="s">
-        <v>41</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>43</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G58" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I58" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J58" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>37</v>
-      </c>
-      <c r="G59" t="s">
-        <v>41</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>43</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G60" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="H60" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I60" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J60" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>37</v>
-      </c>
-      <c r="G61" t="s">
-        <v>41</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>43</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G62" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="H62" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I62" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J62" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
-      </c>
-      <c r="G63" t="s">
-        <v>41</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>43</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G64" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I64" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J64" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I65" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J65" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G66" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I66" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J66" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>37</v>
-      </c>
-      <c r="G67" t="s">
-        <v>44</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G68" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="H68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I68" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J68" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>37</v>
-      </c>
-      <c r="G69" t="s">
-        <v>44</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G70" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I70" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J70" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>37</v>
-      </c>
-      <c r="G71" t="s">
-        <v>44</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G72" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I72" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J72" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>37</v>
-      </c>
-      <c r="G73" t="s">
-        <v>38</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>40</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G74" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I74" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J74" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I75" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J75" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G76" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="H76" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I76" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J76" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>37</v>
-      </c>
-      <c r="G77" t="s">
-        <v>38</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>40</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G78" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I78" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J78" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>37</v>
-      </c>
-      <c r="G79" t="s">
-        <v>38</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>40</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G80" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="H80" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I80" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J80" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G81" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H81" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I81" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J81" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G82" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="H82" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I82" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>125</v>
+      </c>
+      <c r="J82" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>37</v>
-      </c>
-      <c r="G83" t="s">
-        <v>41</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>43</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G84" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="H84" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I84" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>125</v>
+      </c>
+      <c r="J84" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>37</v>
-      </c>
-      <c r="G85" t="s">
-        <v>41</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>43</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G86" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="H86" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I86" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>125</v>
+      </c>
+      <c r="J86" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G87" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H87" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I87" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J87" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G88" t="s">
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I88" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="J88" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>37</v>
-      </c>
-      <c r="G89" t="s">
-        <v>47</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>49</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G90" t="s">
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="H90" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I90" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="J90" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>37</v>
-      </c>
-      <c r="G91" t="s">
-        <v>47</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>49</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G92" t="s">
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="H92" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I92" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="J92" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>37</v>
-      </c>
-      <c r="G93" t="s">
-        <v>47</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>49</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G94" t="s">
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="H94" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I94" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="J94" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>37</v>
-      </c>
-      <c r="G95" t="s">
-        <v>38</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>40</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G96" t="s">
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="H96" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I96" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="J96" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>37</v>
-      </c>
-      <c r="G97" t="s">
-        <v>38</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>40</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G98" t="s">
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="H98" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I98" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>134</v>
+      </c>
+      <c r="J98" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G99" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I99" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J99" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I100" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J100" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>37</v>
-      </c>
-      <c r="G101" t="s">
-        <v>41</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>43</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G102" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H102" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I102" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J102" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>37</v>
-      </c>
-      <c r="G103" t="s">
-        <v>44</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>46</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G104" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H104" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I104" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J104" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G105" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H105" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I105" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J105" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G106" t="s">
-        <v>152</v>
+        <v>14</v>
       </c>
       <c r="H106" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I106" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>155</v>
+      </c>
+      <c r="J106" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>37</v>
-      </c>
-      <c r="G107" t="s">
-        <v>47</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>49</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>37</v>
-      </c>
-      <c r="G108" t="s">
-        <v>41</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>43</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G109" t="s">
-        <v>152</v>
+        <v>14</v>
       </c>
       <c r="H109" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I109" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>155</v>
+      </c>
+      <c r="J109" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>37</v>
-      </c>
-      <c r="G110" t="s">
-        <v>44</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>46</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G111" t="s">
-        <v>152</v>
+        <v>14</v>
       </c>
       <c r="H111" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I111" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>155</v>
+      </c>
+      <c r="J111" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>37</v>
-      </c>
-      <c r="G112" t="s">
-        <v>44</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>46</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G113" t="s">
-        <v>152</v>
+        <v>14</v>
       </c>
       <c r="H113" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I113" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>155</v>
+      </c>
+      <c r="J113" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>37</v>
-      </c>
-      <c r="G114" t="s">
-        <v>41</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>43</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G115" t="s">
-        <v>152</v>
+        <v>14</v>
       </c>
       <c r="H115" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I115" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>155</v>
+      </c>
+      <c r="J115" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G116" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H116" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I116" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J116" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G117" t="s">
-        <v>166</v>
+        <v>14</v>
       </c>
       <c r="H117" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I117" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>169</v>
+      </c>
+      <c r="J117" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
-      </c>
-      <c r="G118" t="s">
-        <v>47</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>49</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G119" t="s">
-        <v>166</v>
+        <v>14</v>
       </c>
       <c r="H119" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I119" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>169</v>
+      </c>
+      <c r="J119" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>37</v>
-      </c>
-      <c r="G120" t="s">
-        <v>47</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>49</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G121" t="s">
-        <v>166</v>
+        <v>14</v>
       </c>
       <c r="H121" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I121" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>169</v>
+      </c>
+      <c r="J121" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>37</v>
-      </c>
-      <c r="G122" t="s">
-        <v>47</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>49</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G123" t="s">
-        <v>166</v>
+        <v>14</v>
       </c>
       <c r="H123" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I123" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>169</v>
+      </c>
+      <c r="J123" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>37</v>
-      </c>
-      <c r="G124" t="s">
-        <v>47</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>49</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G125" t="s">
-        <v>166</v>
+        <v>14</v>
       </c>
       <c r="H125" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I125" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>169</v>
+      </c>
+      <c r="J125" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>37</v>
-      </c>
-      <c r="G126" t="s">
-        <v>47</v>
-      </c>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
+        <v>49</v>
+      </c>
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G127" t="s">
-        <v>166</v>
+        <v>14</v>
       </c>
       <c r="H127" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I127" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>169</v>
+      </c>
+      <c r="J127" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>37</v>
-      </c>
-      <c r="G128" t="s">
-        <v>41</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>43</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G129" t="s">
-        <v>166</v>
+        <v>14</v>
       </c>
       <c r="H129" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I129" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>169</v>
+      </c>
+      <c r="J129" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G130" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H130" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I130" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J130" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G131" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H131" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I131" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J131" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>37</v>
-      </c>
-      <c r="G132" t="s">
-        <v>38</v>
-      </c>
-      <c r="H132" t="s"/>
-      <c r="I132" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G132" t="s"/>
+      <c r="H132" t="s">
+        <v>40</v>
+      </c>
+      <c r="I132" t="s"/>
+      <c r="J132" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G133" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H133" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I133" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J133" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>37</v>
-      </c>
-      <c r="G134" t="s">
-        <v>41</v>
-      </c>
-      <c r="H134" t="s"/>
-      <c r="I134" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
+        <v>43</v>
+      </c>
+      <c r="I134" t="s"/>
+      <c r="J134" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G135" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H135" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I135" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J135" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G136" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H136" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I136" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J136" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G137" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H137" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I137" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J137" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>37</v>
-      </c>
-      <c r="G138" t="s">
-        <v>41</v>
-      </c>
-      <c r="H138" t="s"/>
-      <c r="I138" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
+        <v>43</v>
+      </c>
+      <c r="I138" t="s"/>
+      <c r="J138" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G139" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H139" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I139" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J139" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>37</v>
-      </c>
-      <c r="G140" t="s">
-        <v>41</v>
-      </c>
-      <c r="H140" t="s"/>
-      <c r="I140" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G140" t="s"/>
+      <c r="H140" t="s">
+        <v>43</v>
+      </c>
+      <c r="I140" t="s"/>
+      <c r="J140" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G141" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H141" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I141" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J141" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>37</v>
-      </c>
-      <c r="G142" t="s">
-        <v>41</v>
-      </c>
-      <c r="H142" t="s"/>
-      <c r="I142" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G142" t="s"/>
+      <c r="H142" t="s">
+        <v>43</v>
+      </c>
+      <c r="I142" t="s"/>
+      <c r="J142" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>37</v>
-      </c>
-      <c r="G143" t="s">
-        <v>44</v>
-      </c>
-      <c r="H143" t="s"/>
-      <c r="I143" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G143" t="s"/>
+      <c r="H143" t="s">
+        <v>46</v>
+      </c>
+      <c r="I143" t="s"/>
+      <c r="J143" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
-      </c>
-      <c r="G144" t="s">
-        <v>47</v>
-      </c>
-      <c r="H144" t="s"/>
-      <c r="I144" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G144" t="s"/>
+      <c r="H144" t="s">
+        <v>49</v>
+      </c>
+      <c r="I144" t="s"/>
+      <c r="J144" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>37</v>
-      </c>
-      <c r="G145" t="s">
-        <v>38</v>
-      </c>
-      <c r="H145" t="s"/>
-      <c r="I145" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G145" t="s"/>
+      <c r="H145" t="s">
+        <v>40</v>
+      </c>
+      <c r="I145" t="s"/>
+      <c r="J145" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G146" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H146" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I146" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J146" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G147" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H147" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I147" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J147" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G148" t="s">
-        <v>200</v>
+        <v>14</v>
       </c>
       <c r="H148" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I148" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>203</v>
+      </c>
+      <c r="J148" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>37</v>
-      </c>
-      <c r="G149" t="s">
-        <v>41</v>
-      </c>
-      <c r="H149" t="s"/>
-      <c r="I149" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G149" t="s"/>
+      <c r="H149" t="s">
+        <v>43</v>
+      </c>
+      <c r="I149" t="s"/>
+      <c r="J149" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G150" t="s">
-        <v>200</v>
+        <v>14</v>
       </c>
       <c r="H150" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I150" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>203</v>
+      </c>
+      <c r="J150" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>37</v>
-      </c>
-      <c r="G151" t="s">
-        <v>41</v>
-      </c>
-      <c r="H151" t="s"/>
-      <c r="I151" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G151" t="s"/>
+      <c r="H151" t="s">
+        <v>43</v>
+      </c>
+      <c r="I151" t="s"/>
+      <c r="J151" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G152" t="s">
-        <v>200</v>
+        <v>14</v>
       </c>
       <c r="H152" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I152" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>203</v>
+      </c>
+      <c r="J152" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>37</v>
-      </c>
-      <c r="G153" t="s">
-        <v>47</v>
-      </c>
-      <c r="H153" t="s"/>
-      <c r="I153" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G153" t="s"/>
+      <c r="H153" t="s">
+        <v>49</v>
+      </c>
+      <c r="I153" t="s"/>
+      <c r="J153" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G154" t="s">
-        <v>200</v>
+        <v>14</v>
       </c>
       <c r="H154" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I154" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>203</v>
+      </c>
+      <c r="J154" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>37</v>
-      </c>
-      <c r="G155" t="s">
-        <v>44</v>
-      </c>
-      <c r="H155" t="s"/>
-      <c r="I155" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>39</v>
+      </c>
+      <c r="G155" t="s"/>
+      <c r="H155" t="s">
+        <v>46</v>
+      </c>
+      <c r="I155" t="s"/>
+      <c r="J155" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G156" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H156" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I156" t="s">
-        <v>210</v>
+        <v>16</v>
+      </c>
+      <c r="J156" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
